--- a/AGV_raspberry/data.xlsx
+++ b/AGV_raspberry/data.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="AGV2_20240717134927_99b21e" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="AGV2_20240717140747_b78f2b" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AGV2_20240717150316_b16cf5" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9098,4 +9100,7966 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cur_x</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>cur_y</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cur_orien</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>goal_x</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>goal_y</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>goal_orien</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>v_lyapunov</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>omega_lyapunov</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>v_left</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>v_right</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>14:07:41.372188</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>90</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H2" t="n">
+        <v>35</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.857522203923062</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L2" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>14:07:41.422170</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H3" t="n">
+        <v>35</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.857522203923062</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L3" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>14:07:41.471819</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H4" t="n">
+        <v>35</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.857522203923062</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>14:07:41.521834</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>90</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H5" t="n">
+        <v>35</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.857522203923062</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L5" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>14:07:41.573367</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>90</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H6" t="n">
+        <v>35</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.857522203923062</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14:07:41.623408</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>90</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H7" t="n">
+        <v>35</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.857522203923062</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L7" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14:07:41.673639</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>90</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H8" t="n">
+        <v>35</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.857522203923062</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14:07:41.723755</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>90</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H9" t="n">
+        <v>35</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.857522203923062</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L9" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>14:07:41.773564</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>90</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H10" t="n">
+        <v>35</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.857522203923062</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L10" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>14:07:41.838997</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>90</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.857522203923062</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L11" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>14:07:41.905429</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1815.353401616216</v>
+      </c>
+      <c r="C12" t="n">
+        <v>38.84175382554531</v>
+      </c>
+      <c r="D12" t="n">
+        <v>92.92636113706976</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8268774217564986</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L12" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>14:07:42.005204</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1812.825009698048</v>
+      </c>
+      <c r="C13" t="n">
+        <v>23.64158049458638</v>
+      </c>
+      <c r="D13" t="n">
+        <v>98.91519622411579</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8268774217564986</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L13" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>14:07:42.071736</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1812.825009698048</v>
+      </c>
+      <c r="C14" t="n">
+        <v>23.64158049458638</v>
+      </c>
+      <c r="D14" t="n">
+        <v>98.91519622411579</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.7641624873797499</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L14" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14:07:42.138287</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1809.892887633527</v>
+      </c>
+      <c r="C15" t="n">
+        <v>28.28446778730722</v>
+      </c>
+      <c r="D15" t="n">
+        <v>102.1370583437965</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.7641624873797499</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L15" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>14:07:42.238119</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1809.892887633527</v>
+      </c>
+      <c r="C16" t="n">
+        <v>28.28446778730722</v>
+      </c>
+      <c r="D16" t="n">
+        <v>102.1370583437965</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.7304232261595225</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L16" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>14:07:42.304660</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1806.078225339064</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31.98347180295968</v>
+      </c>
+      <c r="D17" t="n">
+        <v>105.2296439252677</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.7304232261595225</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L17" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>14:07:42.372502</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1806.078225339064</v>
+      </c>
+      <c r="C18" t="n">
+        <v>31.98347180295968</v>
+      </c>
+      <c r="D18" t="n">
+        <v>105.2296439252677</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.6980377456816969</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L18" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>14:07:42.471061</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1800.754051148891</v>
+      </c>
+      <c r="C19" t="n">
+        <v>41.39164409862133</v>
+      </c>
+      <c r="D19" t="n">
+        <v>108.0770848901011</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.6980377456816969</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L19" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>14:07:42.537618</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1798.432589045609</v>
+      </c>
+      <c r="C20" t="n">
+        <v>48.15622099704342</v>
+      </c>
+      <c r="D20" t="n">
+        <v>111.4412006110069</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.6682194136261931</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L20" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>14:07:42.604150</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1798.432589045609</v>
+      </c>
+      <c r="C21" t="n">
+        <v>48.15622099704342</v>
+      </c>
+      <c r="D21" t="n">
+        <v>111.4412006110069</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.6329904761774475</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L21" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>14:07:42.703974</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1793.60551092372</v>
+      </c>
+      <c r="C22" t="n">
+        <v>53.34363649308216</v>
+      </c>
+      <c r="D22" t="n">
+        <v>114.7466990131216</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.6329904761774475</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L22" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>14:07:42.770534</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1793.60551092372</v>
+      </c>
+      <c r="C23" t="n">
+        <v>53.34363649308216</v>
+      </c>
+      <c r="D23" t="n">
+        <v>114.7466990131216</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5983753778556605</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L23" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>14:07:42.837438</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1795.341169646184</v>
+      </c>
+      <c r="C24" t="n">
+        <v>58.56158823880833</v>
+      </c>
+      <c r="D24" t="n">
+        <v>118.0234219542035</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5983753778556605</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L24" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>14:07:42.936926</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1789.150594126608</v>
+      </c>
+      <c r="C25" t="n">
+        <v>64.36276503081899</v>
+      </c>
+      <c r="D25" t="n">
+        <v>121.3283029804734</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5640616154571532</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L25" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>14:07:43.003646</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1789.150594126608</v>
+      </c>
+      <c r="C26" t="n">
+        <v>64.36276503081899</v>
+      </c>
+      <c r="D26" t="n">
+        <v>121.3283029804734</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5294529822800942</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>14:07:43.073363</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1785.988049965948</v>
+      </c>
+      <c r="C27" t="n">
+        <v>68.24210719350958</v>
+      </c>
+      <c r="D27" t="n">
+        <v>124.3840716483282</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5294529822800942</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L27" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>14:07:43.169822</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1785.988049965948</v>
+      </c>
+      <c r="C28" t="n">
+        <v>68.24210719350958</v>
+      </c>
+      <c r="D28" t="n">
+        <v>124.3840716483282</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.497453047620085</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L28" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>14:07:43.236360</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1783.483792410829</v>
+      </c>
+      <c r="C29" t="n">
+        <v>71.98531429130526</v>
+      </c>
+      <c r="D29" t="n">
+        <v>127.5610548858276</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.497453047620085</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L29" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>14:07:43.302938</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1783.483792410829</v>
+      </c>
+      <c r="C30" t="n">
+        <v>71.98531429130526</v>
+      </c>
+      <c r="D30" t="n">
+        <v>127.5610548858276</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.4641837569550653</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L30" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>14:07:43.402702</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1777.479487692603</v>
+      </c>
+      <c r="C31" t="n">
+        <v>78.56102747573459</v>
+      </c>
+      <c r="D31" t="n">
+        <v>131.0543851386501</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.4641837569550653</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L31" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>14:07:43.473325</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1773.340545105879</v>
+      </c>
+      <c r="C32" t="n">
+        <v>84.3283067104494</v>
+      </c>
+      <c r="D32" t="n">
+        <v>134.4964384906962</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.4276016880922983</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L32" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>14:07:43.535852</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1773.340545105879</v>
+      </c>
+      <c r="C33" t="n">
+        <v>84.3283067104494</v>
+      </c>
+      <c r="D33" t="n">
+        <v>134.4964384906962</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3915565896787914</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L33" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>14:07:43.635658</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1770.580633730555</v>
+      </c>
+      <c r="C34" t="n">
+        <v>87.96201768818719</v>
+      </c>
+      <c r="D34" t="n">
+        <v>138.297621532638</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3915565896787914</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L34" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>14:07:43.702192</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1770.580633730555</v>
+      </c>
+      <c r="C35" t="n">
+        <v>87.96201768818719</v>
+      </c>
+      <c r="D35" t="n">
+        <v>138.297621532638</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.3517506939470761</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L35" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>14:07:43.802012</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1765.69304318777</v>
+      </c>
+      <c r="C36" t="n">
+        <v>91.35928645519016</v>
+      </c>
+      <c r="D36" t="n">
+        <v>142.472314296765</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.3517506939470761</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L36" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>14:07:43.873418</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1760.081175686486</v>
+      </c>
+      <c r="C37" t="n">
+        <v>95.14184895688231</v>
+      </c>
+      <c r="D37" t="n">
+        <v>146.5027442928204</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>142.3703114380741</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.3080334135511563</v>
+      </c>
+      <c r="K37" t="n">
+        <v>65</v>
+      </c>
+      <c r="L37" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>14:07:43.935138</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1760.081175686486</v>
+      </c>
+      <c r="C38" t="n">
+        <v>95.14184895688231</v>
+      </c>
+      <c r="D38" t="n">
+        <v>146.5027442928204</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.8658268493297721</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L38" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>14:07:44.034997</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1754.114601059104</v>
+      </c>
+      <c r="C39" t="n">
+        <v>101.581005467051</v>
+      </c>
+      <c r="D39" t="n">
+        <v>150.6860297590265</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.8658268493297721</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L39" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>14:07:44.101505</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1754.114601059104</v>
+      </c>
+      <c r="C40" t="n">
+        <v>101.581005467051</v>
+      </c>
+      <c r="D40" t="n">
+        <v>150.6860297590265</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.8220195863680981</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L40" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>14:07:44.168070</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1749.095864765099</v>
+      </c>
+      <c r="C41" t="n">
+        <v>107.8819143180226</v>
+      </c>
+      <c r="D41" t="n">
+        <v>154.7182894996604</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.8220195863680981</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L41" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>14:07:44.267899</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1743.950933202854</v>
+      </c>
+      <c r="C42" t="n">
+        <v>109.4096890245055</v>
+      </c>
+      <c r="D42" t="n">
+        <v>158.5316826529106</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.7797938611062937</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L42" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>14:07:44.334633</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1743.950933202854</v>
+      </c>
+      <c r="C43" t="n">
+        <v>109.4096890245055</v>
+      </c>
+      <c r="D43" t="n">
+        <v>158.5316826529106</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.7398601013879588</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L43" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>14:07:44.402103</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1737.576561756709</v>
+      </c>
+      <c r="C44" t="n">
+        <v>111.4283726610665</v>
+      </c>
+      <c r="D44" t="n">
+        <v>160.7514157528294</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.7398601013879588</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L44" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>14:07:44.500897</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1737.576561756709</v>
+      </c>
+      <c r="C45" t="n">
+        <v>111.4283726610665</v>
+      </c>
+      <c r="D45" t="n">
+        <v>160.7514157528294</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.7166151107225084</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L45" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>14:07:44.567377</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1727.844302216676</v>
+      </c>
+      <c r="C46" t="n">
+        <v>113.6052170653784</v>
+      </c>
+      <c r="D46" t="n">
+        <v>163.6420558193004</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.7166151107225084</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L46" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>14:07:44.633932</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1727.844302216676</v>
+      </c>
+      <c r="C47" t="n">
+        <v>113.6052170653784</v>
+      </c>
+      <c r="D47" t="n">
+        <v>163.6420558193004</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.6863443987325171</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L47" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>14:07:44.733794</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1721.467190195239</v>
+      </c>
+      <c r="C48" t="n">
+        <v>117.7699637586556</v>
+      </c>
+      <c r="D48" t="n">
+        <v>167.0985914828725</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.6863443987325171</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L48" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>14:07:44.817523</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1715.180686547086</v>
+      </c>
+      <c r="C49" t="n">
+        <v>119.6363153217817</v>
+      </c>
+      <c r="D49" t="n">
+        <v>170.8859699511322</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.6501476419073524</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L49" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>14:07:44.866890</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1715.180686547086</v>
+      </c>
+      <c r="C50" t="n">
+        <v>119.6363153217817</v>
+      </c>
+      <c r="D50" t="n">
+        <v>170.8859699511322</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.6104863073331898</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L50" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>14:07:44.966703</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1707.466324675028</v>
+      </c>
+      <c r="C51" t="n">
+        <v>121.3842972299744</v>
+      </c>
+      <c r="D51" t="n">
+        <v>174.9534504162966</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.6104863073331898</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L51" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>14:07:45.033206</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1707.466324675028</v>
+      </c>
+      <c r="C52" t="n">
+        <v>121.3842972299744</v>
+      </c>
+      <c r="D52" t="n">
+        <v>174.9534504162966</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5678917515065879</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L52" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>14:07:45.099804</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1700.788154818423</v>
+      </c>
+      <c r="C53" t="n">
+        <v>125.9725227138688</v>
+      </c>
+      <c r="D53" t="n">
+        <v>178.8462009328305</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5678917515065879</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L53" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>14:07:45.219579</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1695.693923595667</v>
+      </c>
+      <c r="C54" t="n">
+        <v>129.4419905725363</v>
+      </c>
+      <c r="D54" t="n">
+        <v>182.45741302032</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5271269634232527</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L54" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>14:07:45.266150</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1695.693923595667</v>
+      </c>
+      <c r="C55" t="n">
+        <v>129.4419905725363</v>
+      </c>
+      <c r="D55" t="n">
+        <v>182.45741302032</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.4893104388745464</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L55" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>14:07:45.333305</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1690.569644484043</v>
+      </c>
+      <c r="C56" t="n">
+        <v>124.1746133747938</v>
+      </c>
+      <c r="D56" t="n">
+        <v>185.7539303030444</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.4893104388745464</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L56" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>14:07:45.432561</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1690.569644484043</v>
+      </c>
+      <c r="C57" t="n">
+        <v>124.1746133747938</v>
+      </c>
+      <c r="D57" t="n">
+        <v>185.7539303030444</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.4547893906150841</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L57" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>14:07:45.499107</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1685.455974306518</v>
+      </c>
+      <c r="C58" t="n">
+        <v>126.7676225224704</v>
+      </c>
+      <c r="D58" t="n">
+        <v>188.9927642782368</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.4547893906150841</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L58" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>14:07:45.565631</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1685.455974306518</v>
+      </c>
+      <c r="C59" t="n">
+        <v>126.7676225224704</v>
+      </c>
+      <c r="D59" t="n">
+        <v>188.9927642782368</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.420872400539546</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L59" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>14:07:45.665455</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1676.118937858104</v>
+      </c>
+      <c r="C60" t="n">
+        <v>128.4020930297402</v>
+      </c>
+      <c r="D60" t="n">
+        <v>191.8035146399143</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.420872400539546</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L60" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>14:07:45.750419</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1667.538153268237</v>
+      </c>
+      <c r="C61" t="n">
+        <v>124.2108255568155</v>
+      </c>
+      <c r="D61" t="n">
+        <v>195.106487699386</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3914382915818096</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L61" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>14:07:45.798695</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1667.538153268237</v>
+      </c>
+      <c r="C62" t="n">
+        <v>124.2108255568155</v>
+      </c>
+      <c r="D62" t="n">
+        <v>195.106487699386</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.3568496385863388</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L62" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>14:07:45.898391</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1661.794217288974</v>
+      </c>
+      <c r="C63" t="n">
+        <v>124.5057575697274</v>
+      </c>
+      <c r="D63" t="n">
+        <v>198.0058015331542</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.3568496385863388</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L63" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>14:07:45.964924</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1661.794217288974</v>
+      </c>
+      <c r="C64" t="n">
+        <v>124.5057575697274</v>
+      </c>
+      <c r="D64" t="n">
+        <v>198.0058015331542</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.3264880951176136</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L64" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>14:07:46.064714</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1654.841624092791</v>
+      </c>
+      <c r="C65" t="n">
+        <v>119.160586531666</v>
+      </c>
+      <c r="D65" t="n">
+        <v>201.4792526468318</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.3264880951176136</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L65" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>14:07:46.140002</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1633.838686239455</v>
+      </c>
+      <c r="C66" t="n">
+        <v>115.8380414651901</v>
+      </c>
+      <c r="D66" t="n">
+        <v>205.7655379876178</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>172.8314554375586</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.2901142001131711</v>
+      </c>
+      <c r="K66" t="n">
+        <v>65</v>
+      </c>
+      <c r="L66" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>14:07:46.198257</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1633.838686239455</v>
+      </c>
+      <c r="C67" t="n">
+        <v>115.8380414651901</v>
+      </c>
+      <c r="D67" t="n">
+        <v>205.7655379876178</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>156.4767903731318</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.2452283249871615</v>
+      </c>
+      <c r="K67" t="n">
+        <v>65</v>
+      </c>
+      <c r="L67" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>14:07:46.297707</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1643.48508034322</v>
+      </c>
+      <c r="C68" t="n">
+        <v>112.0055913286478</v>
+      </c>
+      <c r="D68" t="n">
+        <v>208.5914892658275</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>156.4767903731318</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.2452283249871615</v>
+      </c>
+      <c r="K68" t="n">
+        <v>65</v>
+      </c>
+      <c r="L68" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>14:07:46.364245</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1643.48508034322</v>
+      </c>
+      <c r="C69" t="n">
+        <v>112.0055913286478</v>
+      </c>
+      <c r="D69" t="n">
+        <v>208.5914892658275</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>165.540350473559</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.2156350324037405</v>
+      </c>
+      <c r="K69" t="n">
+        <v>65</v>
+      </c>
+      <c r="L69" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>14:07:46.430776</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1638.742272756412</v>
+      </c>
+      <c r="C70" t="n">
+        <v>105.7878133871554</v>
+      </c>
+      <c r="D70" t="n">
+        <v>212.2720591220514</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>165.540350473559</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.2156350324037405</v>
+      </c>
+      <c r="K70" t="n">
+        <v>65</v>
+      </c>
+      <c r="L70" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>14:07:46.544115</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1633.939063051133</v>
+      </c>
+      <c r="C71" t="n">
+        <v>100.5748047524094</v>
+      </c>
+      <c r="D71" t="n">
+        <v>215.8554636509598</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>160.2656847212727</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.1770921949992839</v>
+      </c>
+      <c r="K71" t="n">
+        <v>65</v>
+      </c>
+      <c r="L71" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>14:07:46.597231</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1633.939063051133</v>
+      </c>
+      <c r="C72" t="n">
+        <v>100.5748047524094</v>
+      </c>
+      <c r="D72" t="n">
+        <v>215.8554636509598</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>154.5002193070357</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.1395668705230871</v>
+      </c>
+      <c r="K72" t="n">
+        <v>65</v>
+      </c>
+      <c r="L72" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>14:07:46.697335</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1628.986018398195</v>
+      </c>
+      <c r="C73" t="n">
+        <v>103.0215478532909</v>
+      </c>
+      <c r="D73" t="n">
+        <v>216.4868358345211</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>154.5002193070357</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.1395668705230871</v>
+      </c>
+      <c r="K73" t="n">
+        <v>65</v>
+      </c>
+      <c r="L73" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>14:07:46.763508</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1628.986018398195</v>
+      </c>
+      <c r="C74" t="n">
+        <v>103.0215478532909</v>
+      </c>
+      <c r="D74" t="n">
+        <v>216.4868358345211</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>152.1005601731826</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.1329551564778964</v>
+      </c>
+      <c r="K74" t="n">
+        <v>65</v>
+      </c>
+      <c r="L74" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>14:07:46.830083</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1619.984986880212</v>
+      </c>
+      <c r="C75" t="n">
+        <v>95.21597242289772</v>
+      </c>
+      <c r="D75" t="n">
+        <v>216.2949699731053</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>152.1005601731826</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.1329551564778964</v>
+      </c>
+      <c r="K75" t="n">
+        <v>65</v>
+      </c>
+      <c r="L75" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>14:07:46.929935</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1619.984986880212</v>
+      </c>
+      <c r="C76" t="n">
+        <v>95.21597242289772</v>
+      </c>
+      <c r="D76" t="n">
+        <v>216.2949699731053</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>140.1722194463403</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.1349643710802253</v>
+      </c>
+      <c r="K76" t="n">
+        <v>65</v>
+      </c>
+      <c r="L76" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>14:07:46.996465</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1599.427882829099</v>
+      </c>
+      <c r="C77" t="n">
+        <v>84.97490334282247</v>
+      </c>
+      <c r="D77" t="n">
+        <v>215.9246222497404</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>140.1722194463403</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.1349643710802253</v>
+      </c>
+      <c r="K77" t="n">
+        <v>65</v>
+      </c>
+      <c r="L77" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>14:07:47.069037</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1599.427882829099</v>
+      </c>
+      <c r="C78" t="n">
+        <v>84.97490334282247</v>
+      </c>
+      <c r="D78" t="n">
+        <v>215.9246222497404</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>117.4155401345694</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.1388426433702143</v>
+      </c>
+      <c r="K78" t="n">
+        <v>65</v>
+      </c>
+      <c r="L78" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>14:07:47.162855</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1599.427882829099</v>
+      </c>
+      <c r="C79" t="n">
+        <v>84.97490334282247</v>
+      </c>
+      <c r="D79" t="n">
+        <v>215.9246222497404</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>117.4155401345694</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.1388426433702143</v>
+      </c>
+      <c r="K79" t="n">
+        <v>65</v>
+      </c>
+      <c r="L79" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>14:07:47.229469</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1576.697653901414</v>
+      </c>
+      <c r="C80" t="n">
+        <v>67.33332427190817</v>
+      </c>
+      <c r="D80" t="n">
+        <v>216.1044572157061</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>117.4155401345694</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.1388426433702143</v>
+      </c>
+      <c r="K80" t="n">
+        <v>65</v>
+      </c>
+      <c r="L80" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>14:07:47.329162</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1576.697653901414</v>
+      </c>
+      <c r="C81" t="n">
+        <v>67.33332427190817</v>
+      </c>
+      <c r="D81" t="n">
+        <v>216.1044572157061</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>88.71708965360241</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.1369594160104261</v>
+      </c>
+      <c r="K81" t="n">
+        <v>65</v>
+      </c>
+      <c r="L81" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>14:07:47.395836</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1559.725413251494</v>
+      </c>
+      <c r="C82" t="n">
+        <v>55.32359710284709</v>
+      </c>
+      <c r="D82" t="n">
+        <v>215.774625378117</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>88.71708965360241</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.1369594160104261</v>
+      </c>
+      <c r="K82" t="n">
+        <v>65</v>
+      </c>
+      <c r="L82" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>14:07:47.462297</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1559.725413251494</v>
+      </c>
+      <c r="C83" t="n">
+        <v>55.32359710284709</v>
+      </c>
+      <c r="D83" t="n">
+        <v>215.774625378117</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>67.81751223611545</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.1404134069367264</v>
+      </c>
+      <c r="K83" t="n">
+        <v>65</v>
+      </c>
+      <c r="L83" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>14:07:47.562148</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1559.725413251494</v>
+      </c>
+      <c r="C84" t="n">
+        <v>55.32359710284709</v>
+      </c>
+      <c r="D84" t="n">
+        <v>215.774625378117</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>67.81751223611545</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.1404134069367264</v>
+      </c>
+      <c r="K84" t="n">
+        <v>65</v>
+      </c>
+      <c r="L84" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>14:07:47.628663</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1559.725413251494</v>
+      </c>
+      <c r="C85" t="n">
+        <v>55.32359710284709</v>
+      </c>
+      <c r="D85" t="n">
+        <v>215.774625378117</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>67.81751223611545</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.1404134069367264</v>
+      </c>
+      <c r="K85" t="n">
+        <v>65</v>
+      </c>
+      <c r="L85" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>14:07:47.695188</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1559.725413251494</v>
+      </c>
+      <c r="C86" t="n">
+        <v>55.32359710284709</v>
+      </c>
+      <c r="D86" t="n">
+        <v>215.774625378117</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>67.81751223611545</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.1404134069367264</v>
+      </c>
+      <c r="K86" t="n">
+        <v>65</v>
+      </c>
+      <c r="L86" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>14:07:47.795041</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1536.690805019811</v>
+      </c>
+      <c r="C87" t="n">
+        <v>38.62695057589463</v>
+      </c>
+      <c r="D87" t="n">
+        <v>215.8052385009341</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1516</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>67.81751223611545</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.1404134069367264</v>
+      </c>
+      <c r="K87" t="n">
+        <v>65</v>
+      </c>
+      <c r="L87" t="n">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cur_x</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>cur_y</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cur_orien</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>goal_x</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>goal_y</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>goal_orien</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>v_lyapunov</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>omega_lyapunov</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>v_left</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>v_right</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>15:03:00.569751</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>90</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>263</v>
+      </c>
+      <c r="G2" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I2" t="n">
+        <v>263</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2575222039230621</v>
+      </c>
+      <c r="K2" t="n">
+        <v>75.96915897309509</v>
+      </c>
+      <c r="L2" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>15:03:00.669752</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F3" t="n">
+        <v>263</v>
+      </c>
+      <c r="G3" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H3" t="n">
+        <v>40</v>
+      </c>
+      <c r="I3" t="n">
+        <v>263</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2575222039230621</v>
+      </c>
+      <c r="K3" t="n">
+        <v>75.96915897309509</v>
+      </c>
+      <c r="L3" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>15:03:00.769758</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F4" t="n">
+        <v>263</v>
+      </c>
+      <c r="G4" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H4" t="n">
+        <v>40</v>
+      </c>
+      <c r="I4" t="n">
+        <v>263</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2575222039230621</v>
+      </c>
+      <c r="K4" t="n">
+        <v>75.96915897309509</v>
+      </c>
+      <c r="L4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>15:03:00.869762</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>90</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>263</v>
+      </c>
+      <c r="G5" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H5" t="n">
+        <v>40</v>
+      </c>
+      <c r="I5" t="n">
+        <v>263</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2575222039230621</v>
+      </c>
+      <c r="K5" t="n">
+        <v>75.96915897309509</v>
+      </c>
+      <c r="L5" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15:03:00.969944</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>90</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F6" t="n">
+        <v>263</v>
+      </c>
+      <c r="G6" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H6" t="n">
+        <v>40</v>
+      </c>
+      <c r="I6" t="n">
+        <v>263</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2575222039230621</v>
+      </c>
+      <c r="K6" t="n">
+        <v>75.96915897309509</v>
+      </c>
+      <c r="L6" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15:03:01.100042</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1815.059194163536</v>
+      </c>
+      <c r="C7" t="n">
+        <v>39.39160100053414</v>
+      </c>
+      <c r="D7" t="n">
+        <v>90.27755602081015</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F7" t="n">
+        <v>263</v>
+      </c>
+      <c r="G7" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H7" t="n">
+        <v>40</v>
+      </c>
+      <c r="I7" t="n">
+        <v>247.8844260242008</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.2514889122472943</v>
+      </c>
+      <c r="K7" t="n">
+        <v>71.33920546979206</v>
+      </c>
+      <c r="L7" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15:03:01.266265</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1815.958735226508</v>
+      </c>
+      <c r="C8" t="n">
+        <v>64.81205129457521</v>
+      </c>
+      <c r="D8" t="n">
+        <v>90.53884827608272</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F8" t="n">
+        <v>263</v>
+      </c>
+      <c r="G8" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H8" t="n">
+        <v>13</v>
+      </c>
+      <c r="I8" t="n">
+        <v>199.580072190318</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2518793979712587</v>
+      </c>
+      <c r="K8" t="n">
+        <v>65</v>
+      </c>
+      <c r="L8" t="n">
+        <v>71.10491394972864</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15:03:01.432690</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1818.701934985205</v>
+      </c>
+      <c r="C9" t="n">
+        <v>89.06377430976136</v>
+      </c>
+      <c r="D9" t="n">
+        <v>90.21723135909269</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F9" t="n">
+        <v>263</v>
+      </c>
+      <c r="G9" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13</v>
+      </c>
+      <c r="I9" t="n">
+        <v>174.5101372590965</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2552473624502123</v>
+      </c>
+      <c r="K9" t="n">
+        <v>65</v>
+      </c>
+      <c r="L9" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15:03:01.565780</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1819.665802272124</v>
+      </c>
+      <c r="C10" t="n">
+        <v>114.2330962917185</v>
+      </c>
+      <c r="D10" t="n">
+        <v>89.91138215267711</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F10" t="n">
+        <v>263</v>
+      </c>
+      <c r="G10" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13</v>
+      </c>
+      <c r="I10" t="n">
+        <v>148.5306017557785</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.2584502078501505</v>
+      </c>
+      <c r="K10" t="n">
+        <v>65</v>
+      </c>
+      <c r="L10" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>15:03:01.732212</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1818.060765250033</v>
+      </c>
+      <c r="C11" t="n">
+        <v>168.0139955482446</v>
+      </c>
+      <c r="D11" t="n">
+        <v>89.13057311063312</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F11" t="n">
+        <v>263</v>
+      </c>
+      <c r="G11" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>121.4246223721229</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.2604747779233347</v>
+      </c>
+      <c r="K11" t="n">
+        <v>65</v>
+      </c>
+      <c r="L11" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>15:03:01.898589</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1814.474182783073</v>
+      </c>
+      <c r="C12" t="n">
+        <v>192.7840791991912</v>
+      </c>
+      <c r="D12" t="n">
+        <v>88.68175583051197</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F12" t="n">
+        <v>263</v>
+      </c>
+      <c r="G12" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8666268210179567</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L12" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>15:03:02.031750</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1816.409859881736</v>
+      </c>
+      <c r="C13" t="n">
+        <v>215.5554773344193</v>
+      </c>
+      <c r="D13" t="n">
+        <v>88.61143725032889</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F13" t="n">
+        <v>263</v>
+      </c>
+      <c r="G13" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8713268245847327</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L13" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>15:03:02.132461</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1815.879714349052</v>
+      </c>
+      <c r="C14" t="n">
+        <v>237.2224417398684</v>
+      </c>
+      <c r="D14" t="n">
+        <v>88.4784012444652</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F14" t="n">
+        <v>263</v>
+      </c>
+      <c r="G14" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.872063199034446</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L14" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>15:03:02.264723</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1815.879714349052</v>
+      </c>
+      <c r="C15" t="n">
+        <v>237.2224417398684</v>
+      </c>
+      <c r="D15" t="n">
+        <v>88.4784012444652</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F15" t="n">
+        <v>263</v>
+      </c>
+      <c r="G15" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8734563488300604</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L15" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15:03:02.431090</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1815.908711869037</v>
+      </c>
+      <c r="C16" t="n">
+        <v>269.8164200061001</v>
+      </c>
+      <c r="D16" t="n">
+        <v>90.23418902939738</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F16" t="n">
+        <v>263</v>
+      </c>
+      <c r="G16" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.8734563488300604</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L16" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>15:03:02.597500</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1815.64721244917</v>
+      </c>
+      <c r="C17" t="n">
+        <v>279.2788316262886</v>
+      </c>
+      <c r="D17" t="n">
+        <v>93.17667134888325</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F17" t="n">
+        <v>263</v>
+      </c>
+      <c r="G17" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.8550697821420415</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L17" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>15:03:02.764104</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1811.269244145427</v>
+      </c>
+      <c r="C18" t="n">
+        <v>286.665984751744</v>
+      </c>
+      <c r="D18" t="n">
+        <v>96.39842661210423</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F18" t="n">
+        <v>263</v>
+      </c>
+      <c r="G18" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.8242561793479928</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L18" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>15:03:02.900479</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1810.412753199984</v>
+      </c>
+      <c r="C19" t="n">
+        <v>295.0355443601438</v>
+      </c>
+      <c r="D19" t="n">
+        <v>100.0695857556639</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F19" t="n">
+        <v>263</v>
+      </c>
+      <c r="G19" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.7520737484741087</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L19" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>15:03:03.063521</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1805.447106588457</v>
+      </c>
+      <c r="C20" t="n">
+        <v>298.8964966927597</v>
+      </c>
+      <c r="D20" t="n">
+        <v>103.7625529395518</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F20" t="n">
+        <v>263</v>
+      </c>
+      <c r="G20" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.7134010865579399</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L20" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>15:03:03.229928</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1799.76501461619</v>
+      </c>
+      <c r="C21" t="n">
+        <v>307.9069305407756</v>
+      </c>
+      <c r="D21" t="n">
+        <v>109.9712195219035</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F21" t="n">
+        <v>263</v>
+      </c>
+      <c r="G21" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.6775964468995531</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L21" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>15:03:03.370056</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1799.76501461619</v>
+      </c>
+      <c r="C22" t="n">
+        <v>307.9069305407756</v>
+      </c>
+      <c r="D22" t="n">
+        <v>109.9712195219035</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F22" t="n">
+        <v>263</v>
+      </c>
+      <c r="G22" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.6483840821455912</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L22" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>15:03:03.529448</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1793.565612409788</v>
+      </c>
+      <c r="C23" t="n">
+        <v>318.5026799226762</v>
+      </c>
+      <c r="D23" t="n">
+        <v>115.3858008898533</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F23" t="n">
+        <v>263</v>
+      </c>
+      <c r="G23" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.221465486081826</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L23" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>15:03:03.695949</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1785.79537047894</v>
+      </c>
+      <c r="C24" t="n">
+        <v>327.0238950113708</v>
+      </c>
+      <c r="D24" t="n">
+        <v>118.5442399374005</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F24" t="n">
+        <v>263</v>
+      </c>
+      <c r="G24" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.191682718652874</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L24" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>15:03:03.829905</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1784.315296438348</v>
+      </c>
+      <c r="C25" t="n">
+        <v>331.4241781095916</v>
+      </c>
+      <c r="D25" t="n">
+        <v>122.2823863244412</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F25" t="n">
+        <v>263</v>
+      </c>
+      <c r="G25" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.119461844865689</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L25" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>15:03:03.995496</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1781.955085311842</v>
+      </c>
+      <c r="C26" t="n">
+        <v>333.4147409732395</v>
+      </c>
+      <c r="D26" t="n">
+        <v>126.9258155441639</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F26" t="n">
+        <v>263</v>
+      </c>
+      <c r="G26" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.070835967785205</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>15:03:04.161722</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1779.642774002918</v>
+      </c>
+      <c r="C27" t="n">
+        <v>335.3976217993477</v>
+      </c>
+      <c r="D27" t="n">
+        <v>129.8810099235743</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F27" t="n">
+        <v>263</v>
+      </c>
+      <c r="G27" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.03988924461092</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L27" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>15:03:04.294831</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1774.792642333836</v>
+      </c>
+      <c r="C28" t="n">
+        <v>339.5019662209961</v>
+      </c>
+      <c r="D28" t="n">
+        <v>133.2446401474772</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F28" t="n">
+        <v>263</v>
+      </c>
+      <c r="G28" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.0046653912749</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L28" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>15:03:04.461227</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1768.560484139329</v>
+      </c>
+      <c r="C29" t="n">
+        <v>354.6090496813122</v>
+      </c>
+      <c r="D29" t="n">
+        <v>140.9520257071745</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F29" t="n">
+        <v>263</v>
+      </c>
+      <c r="G29" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9679311070538478</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L29" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>15:03:04.627644</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1763.899539925458</v>
+      </c>
+      <c r="C30" t="n">
+        <v>364.4968570319179</v>
+      </c>
+      <c r="D30" t="n">
+        <v>144.6586607692916</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F30" t="n">
+        <v>263</v>
+      </c>
+      <c r="G30" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.9239538384324699</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L30" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>15:03:04.760716</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1758.15369416994</v>
+      </c>
+      <c r="C31" t="n">
+        <v>374.4194026330661</v>
+      </c>
+      <c r="D31" t="n">
+        <v>148.4634879440455</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F31" t="n">
+        <v>263</v>
+      </c>
+      <c r="G31" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.8851380468301849</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L31" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>15:03:04.863451</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1748.623010248755</v>
+      </c>
+      <c r="C32" t="n">
+        <v>379.581209760363</v>
+      </c>
+      <c r="D32" t="n">
+        <v>151.8025197344286</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F32" t="n">
+        <v>263</v>
+      </c>
+      <c r="G32" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.8452939898288995</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L32" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>15:03:05.003839</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1748.623010248755</v>
+      </c>
+      <c r="C33" t="n">
+        <v>379.581209760363</v>
+      </c>
+      <c r="D33" t="n">
+        <v>151.8025197344286</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F33" t="n">
+        <v>263</v>
+      </c>
+      <c r="G33" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.8103277306863313</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L33" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>15:03:05.160104</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1733.298853299109</v>
+      </c>
+      <c r="C34" t="n">
+        <v>392.2030063691636</v>
+      </c>
+      <c r="D34" t="n">
+        <v>158.6421691138639</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F34" t="n">
+        <v>263</v>
+      </c>
+      <c r="G34" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.7747185669253479</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L34" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>15:03:05.326480</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1728.40890452824</v>
+      </c>
+      <c r="C35" t="n">
+        <v>394.3536078611942</v>
+      </c>
+      <c r="D35" t="n">
+        <v>161.8530585088411</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F35" t="n">
+        <v>263</v>
+      </c>
+      <c r="G35" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.7387030898744515</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L35" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>15:03:05.492925</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1715.750336149702</v>
+      </c>
+      <c r="C36" t="n">
+        <v>397.8467529694171</v>
+      </c>
+      <c r="D36" t="n">
+        <v>165.4519387644359</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F36" t="n">
+        <v>263</v>
+      </c>
+      <c r="G36" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7050787347586199</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L36" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>15:03:05.626034</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1708.089092621574</v>
+      </c>
+      <c r="C37" t="n">
+        <v>399.7077198753686</v>
+      </c>
+      <c r="D37" t="n">
+        <v>168.5053397209958</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F37" t="n">
+        <v>263</v>
+      </c>
+      <c r="G37" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.6354162088062237</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L37" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>15:03:05.792446</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1688.777780780563</v>
+      </c>
+      <c r="C38" t="n">
+        <v>403.5425124744506</v>
+      </c>
+      <c r="D38" t="n">
+        <v>170.9039720387773</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F38" t="n">
+        <v>263</v>
+      </c>
+      <c r="G38" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.210297789912206</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L38" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>15:03:05.958830</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1675.000812372653</v>
+      </c>
+      <c r="C39" t="n">
+        <v>402.9614979688631</v>
+      </c>
+      <c r="D39" t="n">
+        <v>174.9918037671705</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F39" t="n">
+        <v>263</v>
+      </c>
+      <c r="G39" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.190927332878919</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L39" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>15:03:06.091940</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1660.240506942844</v>
+      </c>
+      <c r="C40" t="n">
+        <v>404.7238915747585</v>
+      </c>
+      <c r="D40" t="n">
+        <v>177.66629120988</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F40" t="n">
+        <v>263</v>
+      </c>
+      <c r="G40" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.167490116155435</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L40" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>15:03:06.258352</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1659.058466778131</v>
+      </c>
+      <c r="C41" t="n">
+        <v>404.2442893285624</v>
+      </c>
+      <c r="D41" t="n">
+        <v>179.6758955152291</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F41" t="n">
+        <v>263</v>
+      </c>
+      <c r="G41" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.13948294914832</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L41" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>15:03:06.424763</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1646.485917042062</v>
+      </c>
+      <c r="C42" t="n">
+        <v>402.059800421921</v>
+      </c>
+      <c r="D42" t="n">
+        <v>181.7042308760392</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F42" t="n">
+        <v>263</v>
+      </c>
+      <c r="G42" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.118438422073964</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L42" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>15:03:06.557867</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1636.830432637706</v>
+      </c>
+      <c r="C43" t="n">
+        <v>399.612511682426</v>
+      </c>
+      <c r="D43" t="n">
+        <v>183.3184799016271</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F43" t="n">
+        <v>263</v>
+      </c>
+      <c r="G43" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.080293367579333</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L43" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>15:03:06.724306</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1627.060479912669</v>
+      </c>
+      <c r="C44" t="n">
+        <v>398.4742521668522</v>
+      </c>
+      <c r="D44" t="n">
+        <v>184.4357890472565</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F44" t="n">
+        <v>263</v>
+      </c>
+      <c r="G44" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.068592933567007</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L44" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>15:03:06.890746</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1611.271976921469</v>
+      </c>
+      <c r="C45" t="n">
+        <v>393.8460342014878</v>
+      </c>
+      <c r="D45" t="n">
+        <v>186.952417551056</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F45" t="n">
+        <v>263</v>
+      </c>
+      <c r="G45" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.042238861502503</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L45" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>15:03:07.023884</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1604.296725019574</v>
+      </c>
+      <c r="C46" t="n">
+        <v>391.8621716449707</v>
+      </c>
+      <c r="D46" t="n">
+        <v>188.2700928882514</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F46" t="n">
+        <v>263</v>
+      </c>
+      <c r="G46" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.028440197638671</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L46" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>15:03:07.190238</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1581.001215460472</v>
+      </c>
+      <c r="C47" t="n">
+        <v>377.8102330850743</v>
+      </c>
+      <c r="D47" t="n">
+        <v>193.4648726139676</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F47" t="n">
+        <v>263</v>
+      </c>
+      <c r="G47" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.006082980658083</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L47" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>15:03:07.356679</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1572.574233296089</v>
+      </c>
+      <c r="C48" t="n">
+        <v>373.0879116790675</v>
+      </c>
+      <c r="D48" t="n">
+        <v>195.1111175869119</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F48" t="n">
+        <v>263</v>
+      </c>
+      <c r="G48" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.9740405915609139</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L48" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>15:03:07.489877</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1561.297795649787</v>
+      </c>
+      <c r="C49" t="n">
+        <v>364.4546883706425</v>
+      </c>
+      <c r="D49" t="n">
+        <v>197.7557984679697</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F49" t="n">
+        <v>263</v>
+      </c>
+      <c r="G49" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.9568011545175445</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L49" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>15:03:07.591301</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1558.094205435535</v>
+      </c>
+      <c r="C50" t="n">
+        <v>357.4067296985959</v>
+      </c>
+      <c r="D50" t="n">
+        <v>200.784572841203</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F50" t="n">
+        <v>263</v>
+      </c>
+      <c r="G50" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.529106121094142</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L50" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>15:03:07.756105</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1549.940665458033</v>
+      </c>
+      <c r="C51" t="n">
+        <v>348.7117188285993</v>
+      </c>
+      <c r="D51" t="n">
+        <v>204.0199038506216</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F51" t="n">
+        <v>263</v>
+      </c>
+      <c r="G51" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.497388870026373</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L51" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>15:03:07.889463</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1541.630550149037</v>
+      </c>
+      <c r="C52" t="n">
+        <v>340.8580422008527</v>
+      </c>
+      <c r="D52" t="n">
+        <v>207.080526995469</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F52" t="n">
+        <v>263</v>
+      </c>
+      <c r="G52" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.463508562922637</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L52" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>15:03:08.055780</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1542.187834019913</v>
+      </c>
+      <c r="C53" t="n">
+        <v>335.8979215990985</v>
+      </c>
+      <c r="D53" t="n">
+        <v>209.596525659781</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F53" t="n">
+        <v>263</v>
+      </c>
+      <c r="G53" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.43145779229844</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L53" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>15:03:08.221946</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1537.050351361884</v>
+      </c>
+      <c r="C54" t="n">
+        <v>328.0479064356769</v>
+      </c>
+      <c r="D54" t="n">
+        <v>212.7978976406121</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F54" t="n">
+        <v>263</v>
+      </c>
+      <c r="G54" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.405110315897624</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L54" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>15:03:08.355048</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1520.533037047042</v>
+      </c>
+      <c r="C55" t="n">
+        <v>320.3640593361342</v>
+      </c>
+      <c r="D55" t="n">
+        <v>215.703308168795</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F55" t="n">
+        <v>263</v>
+      </c>
+      <c r="G55" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.341160239006327</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L55" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>15:03:08.521463</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1528.084435047256</v>
+      </c>
+      <c r="C56" t="n">
+        <v>309.2250227491604</v>
+      </c>
+      <c r="D56" t="n">
+        <v>218.4218126125597</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F56" t="n">
+        <v>263</v>
+      </c>
+      <c r="G56" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.312692127042053</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L56" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>15:03:08.689053</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1520.71316747413</v>
+      </c>
+      <c r="C57" t="n">
+        <v>286.0744751364109</v>
+      </c>
+      <c r="D57" t="n">
+        <v>224.7166284249943</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F57" t="n">
+        <v>263</v>
+      </c>
+      <c r="G57" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.281529123173666</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L57" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>15:03:08.830490</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1520.71316747413</v>
+      </c>
+      <c r="C58" t="n">
+        <v>286.0744751364109</v>
+      </c>
+      <c r="D58" t="n">
+        <v>224.7166284249943</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F58" t="n">
+        <v>263</v>
+      </c>
+      <c r="G58" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.246772970001902</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L58" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>15:03:08.987399</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1515.00933286741</v>
+      </c>
+      <c r="C59" t="n">
+        <v>267.2434131251066</v>
+      </c>
+      <c r="D59" t="n">
+        <v>231.8441925958723</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F59" t="n">
+        <v>263</v>
+      </c>
+      <c r="G59" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.20905887853366</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L59" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>15:03:09.154335</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1512.692920921907</v>
+      </c>
+      <c r="C60" t="n">
+        <v>260.2249323754222</v>
+      </c>
+      <c r="D60" t="n">
+        <v>235.5416757234889</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F60" t="n">
+        <v>263</v>
+      </c>
+      <c r="G60" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.172133292544501</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L60" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>15:03:09.286914</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1506.661876349315</v>
+      </c>
+      <c r="C61" t="n">
+        <v>255.2776134936721</v>
+      </c>
+      <c r="D61" t="n">
+        <v>239.2197752365428</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F61" t="n">
+        <v>263</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.264807556052671</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L61" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>15:03:09.453301</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1512.640955357418</v>
+      </c>
+      <c r="C62" t="n">
+        <v>248.3865733622224</v>
+      </c>
+      <c r="D62" t="n">
+        <v>243.1965677806693</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F62" t="n">
+        <v>263</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.223162681914409</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L62" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>15:03:09.633170</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1508.925685097782</v>
+      </c>
+      <c r="C63" t="n">
+        <v>242.0767050381983</v>
+      </c>
+      <c r="D63" t="n">
+        <v>251.709320599839</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F63" t="n">
+        <v>263</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.177027683232818</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L63" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>15:03:09.752775</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1508.925685097782</v>
+      </c>
+      <c r="C64" t="n">
+        <v>242.0767050381983</v>
+      </c>
+      <c r="D64" t="n">
+        <v>251.709320599839</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F64" t="n">
+        <v>263</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.134017342852644</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L64" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>15:03:09.919198</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1507.692599741566</v>
+      </c>
+      <c r="C65" t="n">
+        <v>234.8718920402462</v>
+      </c>
+      <c r="D65" t="n">
+        <v>258.838553326932</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F65" t="n">
+        <v>263</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.095977461525185</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L65" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>15:03:10.085609</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1507.886950965329</v>
+      </c>
+      <c r="C66" t="n">
+        <v>235.779791859386</v>
+      </c>
+      <c r="D66" t="n">
+        <v>261.8167225157958</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F66" t="n">
+        <v>263</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.05936019231542</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L66" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>15:03:10.252144</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1509.527581797445</v>
+      </c>
+      <c r="C67" t="n">
+        <v>229.8713299256633</v>
+      </c>
+      <c r="D67" t="n">
+        <v>265.2074718250151</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F67" t="n">
+        <v>263</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.028172877499146</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L67" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>15:03:10.385104</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1511.407708028562</v>
+      </c>
+      <c r="C68" t="n">
+        <v>226.2582727285917</v>
+      </c>
+      <c r="D68" t="n">
+        <v>268.1837443474433</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F68" t="n">
+        <v>263</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.9614975807939815</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L68" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>15:03:10.551556</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1511.440511521576</v>
+      </c>
+      <c r="C69" t="n">
+        <v>217.8700405798736</v>
+      </c>
+      <c r="D69" t="n">
+        <v>271.4719249321388</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F69" t="n">
+        <v>263</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.9270638342321283</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L69" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>15:03:10.724576</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1515.38455004127</v>
+      </c>
+      <c r="C70" t="n">
+        <v>212.3118915173109</v>
+      </c>
+      <c r="D70" t="n">
+        <v>278.1899166648691</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F70" t="n">
+        <v>263</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.8964716100887221</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L70" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>15:03:10.863374</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1515.331369438425</v>
+      </c>
+      <c r="C71" t="n">
+        <v>210.8049353249953</v>
+      </c>
+      <c r="D71" t="n">
+        <v>281.5926347875393</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F71" t="n">
+        <v>263</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.8567131893173868</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L71" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>15:03:11.017498</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1513.240131163255</v>
+      </c>
+      <c r="C72" t="n">
+        <v>204.4501017444418</v>
+      </c>
+      <c r="D72" t="n">
+        <v>285.2287871593035</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F72" t="n">
+        <v>263</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.8210800084626614</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L72" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>15:03:11.183917</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1515.671571414785</v>
+      </c>
+      <c r="C73" t="n">
+        <v>199.7896134314942</v>
+      </c>
+      <c r="D73" t="n">
+        <v>287.8777094149154</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F73" t="n">
+        <v>263</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.78300230986777</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L73" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>15:03:11.316976</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1509.339628439264</v>
+      </c>
+      <c r="C74" t="n">
+        <v>190.6202785132336</v>
+      </c>
+      <c r="D74" t="n">
+        <v>291.1165653226089</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F74" t="n">
+        <v>263</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.7552628608738997</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L74" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>15:03:11.483391</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1513.243528089586</v>
+      </c>
+      <c r="C75" t="n">
+        <v>182.1349905003444</v>
+      </c>
+      <c r="D75" t="n">
+        <v>294.6227252773133</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F75" t="n">
+        <v>263</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.6846292199350476</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L75" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>15:03:11.649909</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1512.228349963769</v>
+      </c>
+      <c r="C76" t="n">
+        <v>179.8597839268041</v>
+      </c>
+      <c r="D76" t="n">
+        <v>298.4183038577794</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F76" t="n">
+        <v>263</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.6448820139866637</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L76" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>15:03:11.782930</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1515.27918204163</v>
+      </c>
+      <c r="C77" t="n">
+        <v>174.5254163237405</v>
+      </c>
+      <c r="D77" t="n">
+        <v>302.1891029917061</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F77" t="n">
+        <v>263</v>
+      </c>
+      <c r="G77" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.205394297795641</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L77" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>15:03:11.949298</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1520.941873506743</v>
+      </c>
+      <c r="C78" t="n">
+        <v>164.1740199018386</v>
+      </c>
+      <c r="D78" t="n">
+        <v>309.5399285725034</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F78" t="n">
+        <v>263</v>
+      </c>
+      <c r="G78" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.164158199473105</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L78" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>15:03:12.115705</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1517.022637144762</v>
+      </c>
+      <c r="C79" t="n">
+        <v>151.3979177761939</v>
+      </c>
+      <c r="D79" t="n">
+        <v>314.1509692243017</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F79" t="n">
+        <v>263</v>
+      </c>
+      <c r="G79" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.128416632320798</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L79" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>15:03:12.248828</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1522.598175833335</v>
+      </c>
+      <c r="C80" t="n">
+        <v>149.1776422320982</v>
+      </c>
+      <c r="D80" t="n">
+        <v>317.2681896190807</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F80" t="n">
+        <v>263</v>
+      </c>
+      <c r="G80" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.080129927530487</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L80" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>15:03:12.352341</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1522.53525717031</v>
+      </c>
+      <c r="C81" t="n">
+        <v>144.8126808463712</v>
+      </c>
+      <c r="D81" t="n">
+        <v>321.0178205173179</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F81" t="n">
+        <v>263</v>
+      </c>
+      <c r="G81" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.047486471890961</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L81" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>15:03:12.481787</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1522.53525717031</v>
+      </c>
+      <c r="C82" t="n">
+        <v>144.8126808463712</v>
+      </c>
+      <c r="D82" t="n">
+        <v>321.0178205173179</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F82" t="n">
+        <v>263</v>
+      </c>
+      <c r="G82" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.00822042894571</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L82" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>15:03:12.648207</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1531.333077245725</v>
+      </c>
+      <c r="C83" t="n">
+        <v>130.4254477887298</v>
+      </c>
+      <c r="D83" t="n">
+        <v>328.0617749109115</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F83" t="n">
+        <v>263</v>
+      </c>
+      <c r="G83" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.9697764331456408</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L83" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>15:03:12.814595</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1534.201197431756</v>
+      </c>
+      <c r="C84" t="n">
+        <v>129.773185220256</v>
+      </c>
+      <c r="D84" t="n">
+        <v>331.4034742699187</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F84" t="n">
+        <v>263</v>
+      </c>
+      <c r="G84" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9344563110285925</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L84" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>15:03:12.980992</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1540.544490167738</v>
+      </c>
+      <c r="C85" t="n">
+        <v>117.2639010284911</v>
+      </c>
+      <c r="D85" t="n">
+        <v>334.7741532477266</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F85" t="n">
+        <v>263</v>
+      </c>
+      <c r="G85" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.8994621171727167</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L85" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>15:03:13.114093</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1547.928958718219</v>
+      </c>
+      <c r="C86" t="n">
+        <v>117.5935557123012</v>
+      </c>
+      <c r="D86" t="n">
+        <v>337.9028881378326</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F86" t="n">
+        <v>263</v>
+      </c>
+      <c r="G86" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.8314004143057895</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L86" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>15:03:13.280504</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1551.053419296184</v>
+      </c>
+      <c r="C87" t="n">
+        <v>103.2423233624286</v>
+      </c>
+      <c r="D87" t="n">
+        <v>341.7903069443855</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F87" t="n">
+        <v>263</v>
+      </c>
+      <c r="G87" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.7906914597588118</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L87" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>15:03:13.452318</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1563.647730045412</v>
+      </c>
+      <c r="C88" t="n">
+        <v>101.6430447922176</v>
+      </c>
+      <c r="D88" t="n">
+        <v>347.8789091365616</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F88" t="n">
+        <v>263</v>
+      </c>
+      <c r="G88" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.7620409995269998</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L88" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>15:03:13.584314</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1567.814079441521</v>
+      </c>
+      <c r="C89" t="n">
+        <v>97.5226418227976</v>
+      </c>
+      <c r="D89" t="n">
+        <v>350.5919281089882</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F89" t="n">
+        <v>263</v>
+      </c>
+      <c r="G89" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.7269317667002421</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L89" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>15:03:13.746442</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1575.885184526194</v>
+      </c>
+      <c r="C90" t="n">
+        <v>101.4239677326259</v>
+      </c>
+      <c r="D90" t="n">
+        <v>353.289955481232</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F90" t="n">
+        <v>263</v>
+      </c>
+      <c r="G90" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.6985210984574909</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L90" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>15:03:13.912869</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1581.364939135599</v>
+      </c>
+      <c r="C91" t="n">
+        <v>104.1993787610409</v>
+      </c>
+      <c r="D91" t="n">
+        <v>356.1453986888955</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F91" t="n">
+        <v>263</v>
+      </c>
+      <c r="G91" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.6702674218847396</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L91" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>15:03:14.045956</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1589.008383820399</v>
+      </c>
+      <c r="C92" t="n">
+        <v>102.0355448225018</v>
+      </c>
+      <c r="D92" t="n">
+        <v>358.3251453260164</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F92" t="n">
+        <v>263</v>
+      </c>
+      <c r="G92" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.640365290538278</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L92" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>15:03:14.212426</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1580.323979626044</v>
+      </c>
+      <c r="C93" t="n">
+        <v>115.6674385169026</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.407844505665708</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F93" t="n">
+        <v>263</v>
+      </c>
+      <c r="G93" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5852570868120128</v>
+      </c>
+      <c r="K93" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L93" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>15:03:14.378757</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1590.194696996403</v>
+      </c>
+      <c r="C94" t="n">
+        <v>114.9721707606659</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4.822890770810773</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F94" t="n">
+        <v>263</v>
+      </c>
+      <c r="G94" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5494948059511828</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L94" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>15:03:14.511885</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1599.74313599603</v>
+      </c>
+      <c r="C95" t="n">
+        <v>114.4989891367004</v>
+      </c>
+      <c r="D95" t="n">
+        <v>7.655938009920646</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F95" t="n">
+        <v>263</v>
+      </c>
+      <c r="G95" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5198272046389815</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L95" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>15:03:14.678316</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1612.264610009222</v>
+      </c>
+      <c r="C96" t="n">
+        <v>118.6884423103038</v>
+      </c>
+      <c r="D96" t="n">
+        <v>14.56831976065587</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F96" t="n">
+        <v>263</v>
+      </c>
+      <c r="G96" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.4823140846559124</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L96" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>15:03:14.844692</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1615.09886122956</v>
+      </c>
+      <c r="C97" t="n">
+        <v>126.4921821737516</v>
+      </c>
+      <c r="D97" t="n">
+        <v>17.93711015248846</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F97" t="n">
+        <v>263</v>
+      </c>
+      <c r="G97" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.4474409122159217</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L97" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>15:03:14.977846</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1611.655473706267</v>
+      </c>
+      <c r="C98" t="n">
+        <v>117.9778866553534</v>
+      </c>
+      <c r="D98" t="n">
+        <v>21.00420185590337</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F98" t="n">
+        <v>263</v>
+      </c>
+      <c r="G98" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.4121630217277045</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L98" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>15:03:15.084853</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1622.528522941937</v>
+      </c>
+      <c r="C99" t="n">
+        <v>131.1387355290208</v>
+      </c>
+      <c r="D99" t="n">
+        <v>25.02323128261196</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F99" t="n">
+        <v>263</v>
+      </c>
+      <c r="G99" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.3800445125165895</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L99" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>15:03:15.244052</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1631.343118194562</v>
+      </c>
+      <c r="C100" t="n">
+        <v>134.822595616788</v>
+      </c>
+      <c r="D100" t="n">
+        <v>28.40931017410185</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F100" t="n">
+        <v>263</v>
+      </c>
+      <c r="G100" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.3379573347782265</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L100" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>15:03:15.377148</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1639.282416965651</v>
+      </c>
+      <c r="C101" t="n">
+        <v>141.7421196903888</v>
+      </c>
+      <c r="D101" t="n">
+        <v>31.25046831082727</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F101" t="n">
+        <v>263</v>
+      </c>
+      <c r="G101" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>92.34536606894362</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.3024983995449596</v>
+      </c>
+      <c r="K101" t="n">
+        <v>65</v>
+      </c>
+      <c r="L101" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>15:03:15.543586</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1649.836406897592</v>
+      </c>
+      <c r="C102" t="n">
+        <v>150.0370716061298</v>
+      </c>
+      <c r="D102" t="n">
+        <v>34.41989944309171</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F102" t="n">
+        <v>263</v>
+      </c>
+      <c r="G102" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>86.6021661876169</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.272745861111548</v>
+      </c>
+      <c r="K102" t="n">
+        <v>65</v>
+      </c>
+      <c r="L102" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>15:03:15.709999</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1646.928205975635</v>
+      </c>
+      <c r="C103" t="n">
+        <v>155.9682078692276</v>
+      </c>
+      <c r="D103" t="n">
+        <v>37.97117725298449</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F103" t="n">
+        <v>263</v>
+      </c>
+      <c r="G103" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>78.01123885131601</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.2395556559076122</v>
+      </c>
+      <c r="K103" t="n">
+        <v>65</v>
+      </c>
+      <c r="L103" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>15:03:15.876369</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1649.851153831767</v>
+      </c>
+      <c r="C104" t="n">
+        <v>154.876521361075</v>
+      </c>
+      <c r="D104" t="n">
+        <v>40.50456427554309</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F104" t="n">
+        <v>263</v>
+      </c>
+      <c r="G104" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>83.26632923123817</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.1758371947836608</v>
+      </c>
+      <c r="K104" t="n">
+        <v>65</v>
+      </c>
+      <c r="L104" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>15:03:16.009512</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1649.851153831767</v>
+      </c>
+      <c r="C105" t="n">
+        <v>154.876521361075</v>
+      </c>
+      <c r="D105" t="n">
+        <v>40.50456427554309</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F105" t="n">
+        <v>263</v>
+      </c>
+      <c r="G105" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>83.26632923123817</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.1758371947836608</v>
+      </c>
+      <c r="K105" t="n">
+        <v>65</v>
+      </c>
+      <c r="L105" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>15:03:16.178533</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1671.634281173536</v>
+      </c>
+      <c r="C106" t="n">
+        <v>177.4704095554625</v>
+      </c>
+      <c r="D106" t="n">
+        <v>40.53296135818528</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F106" t="n">
+        <v>263</v>
+      </c>
+      <c r="G106" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.7760821086988322</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L106" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>15:03:16.342276</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1671.634281173536</v>
+      </c>
+      <c r="C107" t="n">
+        <v>177.4704095554625</v>
+      </c>
+      <c r="D107" t="n">
+        <v>40.53296135818528</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F107" t="n">
+        <v>263</v>
+      </c>
+      <c r="G107" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.7755398212296205</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L107" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>15:03:16.475433</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1691.67885882496</v>
+      </c>
+      <c r="C108" t="n">
+        <v>193.8952338063245</v>
+      </c>
+      <c r="D108" t="n">
+        <v>40.27533281267097</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F108" t="n">
+        <v>263</v>
+      </c>
+      <c r="G108" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.7755398212296205</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L108" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>15:03:16.641832</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1691.67885882496</v>
+      </c>
+      <c r="C109" t="n">
+        <v>193.8952338063245</v>
+      </c>
+      <c r="D109" t="n">
+        <v>40.27533281267097</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F109" t="n">
+        <v>263</v>
+      </c>
+      <c r="G109" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.7782377010494299</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L109" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>15:03:16.808243</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1712.860062718462</v>
+      </c>
+      <c r="C110" t="n">
+        <v>220.8742335737043</v>
+      </c>
+      <c r="D110" t="n">
+        <v>41.65029037925706</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F110" t="n">
+        <v>263</v>
+      </c>
+      <c r="G110" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.7638391790821479</v>
+      </c>
+      <c r="K110" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L110" t="n">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/AGV_raspberry/data.xlsx
+++ b/AGV_raspberry/data.xlsx
@@ -10,6 +10,7 @@
     <sheet name="AGV2_20240717134927_99b21e" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="AGV2_20240717140747_b78f2b" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="AGV2_20240717150316_b16cf5" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="AGV2_20240717152020_c67747" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17062,4 +17063,7445 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L185"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cur_x</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>cur_y</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cur_orien</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>goal_x</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>goal_y</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>goal_orien</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>v_lyapunov</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>omega_lyapunov</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>v_left</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>v_right</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>15:19:51.653019</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1819.733077898622</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1097056781873107</v>
+      </c>
+      <c r="D2" t="n">
+        <v>90.16176691278815</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>263</v>
+      </c>
+      <c r="G2" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31</v>
+      </c>
+      <c r="I2" t="n">
+        <v>263.3204672133996</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2558281847736982</v>
+      </c>
+      <c r="K2" t="n">
+        <v>76.12212343284624</v>
+      </c>
+      <c r="L2" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>15:19:51.753021</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1819.733077898622</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1097056781873107</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90.16176691278815</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F3" t="n">
+        <v>263</v>
+      </c>
+      <c r="G3" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H3" t="n">
+        <v>31</v>
+      </c>
+      <c r="I3" t="n">
+        <v>263.3204672133996</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2558281847736982</v>
+      </c>
+      <c r="K3" t="n">
+        <v>76.12212343284624</v>
+      </c>
+      <c r="L3" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>15:19:51.853027</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1819.733077898622</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1097056781873107</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90.16176691278815</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F4" t="n">
+        <v>263</v>
+      </c>
+      <c r="G4" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H4" t="n">
+        <v>31</v>
+      </c>
+      <c r="I4" t="n">
+        <v>263.3204672133996</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2558281847736982</v>
+      </c>
+      <c r="K4" t="n">
+        <v>76.12212343284624</v>
+      </c>
+      <c r="L4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>15:19:51.953030</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1819.733077898622</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1097056781873107</v>
+      </c>
+      <c r="D5" t="n">
+        <v>90.16176691278815</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>263</v>
+      </c>
+      <c r="G5" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H5" t="n">
+        <v>31</v>
+      </c>
+      <c r="I5" t="n">
+        <v>263.3204672133996</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2558281847736982</v>
+      </c>
+      <c r="K5" t="n">
+        <v>76.12212343284624</v>
+      </c>
+      <c r="L5" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15:19:52.053037</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1819.733077898622</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1097056781873107</v>
+      </c>
+      <c r="D6" t="n">
+        <v>90.16176691278815</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F6" t="n">
+        <v>263</v>
+      </c>
+      <c r="G6" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H6" t="n">
+        <v>31</v>
+      </c>
+      <c r="I6" t="n">
+        <v>263.3204672133996</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2558281847736982</v>
+      </c>
+      <c r="K6" t="n">
+        <v>76.12212343284624</v>
+      </c>
+      <c r="L6" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15:19:52.187319</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1822.390452417079</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50.21408407337731</v>
+      </c>
+      <c r="D7" t="n">
+        <v>90.55396238261892</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F7" t="n">
+        <v>263</v>
+      </c>
+      <c r="G7" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H7" t="n">
+        <v>31</v>
+      </c>
+      <c r="I7" t="n">
+        <v>238.4386868370953</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.2484440006335512</v>
+      </c>
+      <c r="K7" t="n">
+        <v>68.42412511106311</v>
+      </c>
+      <c r="L7" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15:19:52.352235</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1818.410675064428</v>
+      </c>
+      <c r="C8" t="n">
+        <v>75.14873266482027</v>
+      </c>
+      <c r="D8" t="n">
+        <v>90.11913481670491</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F8" t="n">
+        <v>263</v>
+      </c>
+      <c r="G8" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H8" t="n">
+        <v>31</v>
+      </c>
+      <c r="I8" t="n">
+        <v>214.278334602178</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2517211234177264</v>
+      </c>
+      <c r="K8" t="n">
+        <v>65</v>
+      </c>
+      <c r="L8" t="n">
+        <v>75.7787552415884</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15:19:52.518679</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1821.926275413483</v>
+      </c>
+      <c r="C9" t="n">
+        <v>101.4666192902951</v>
+      </c>
+      <c r="D9" t="n">
+        <v>89.81512081583787</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F9" t="n">
+        <v>263</v>
+      </c>
+      <c r="G9" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H9" t="n">
+        <v>31</v>
+      </c>
+      <c r="I9" t="n">
+        <v>188.1656884542239</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2562746270399057</v>
+      </c>
+      <c r="K9" t="n">
+        <v>65</v>
+      </c>
+      <c r="L9" t="n">
+        <v>67.60381250153844</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15:19:52.651958</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1819.221111060819</v>
+      </c>
+      <c r="C10" t="n">
+        <v>129.0598228544695</v>
+      </c>
+      <c r="D10" t="n">
+        <v>89.87886698632792</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F10" t="n">
+        <v>263</v>
+      </c>
+      <c r="G10" t="n">
+        <v>114.5915590261646</v>
+      </c>
+      <c r="H10" t="n">
+        <v>31</v>
+      </c>
+      <c r="I10" t="n">
+        <v>133.6180567537973</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.2587907058759267</v>
+      </c>
+      <c r="K10" t="n">
+        <v>65</v>
+      </c>
+      <c r="L10" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>15:19:52.818135</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1817.694269621046</v>
+      </c>
+      <c r="C11" t="n">
+        <v>154.3151580699487</v>
+      </c>
+      <c r="D11" t="n">
+        <v>89.65404471680813</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F11" t="n">
+        <v>263</v>
+      </c>
+      <c r="G11" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H11" t="n">
+        <v>31</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.8611450391768826</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L11" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>15:19:52.991140</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1820.962656024261</v>
+      </c>
+      <c r="C12" t="n">
+        <v>201.1499136438943</v>
+      </c>
+      <c r="D12" t="n">
+        <v>89.02521111398528</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F12" t="n">
+        <v>263</v>
+      </c>
+      <c r="G12" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H12" t="n">
+        <v>31</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.863588151084776</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L12" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>15:19:53.150885</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1819.960126225254</v>
+      </c>
+      <c r="C13" t="n">
+        <v>222.2543322466663</v>
+      </c>
+      <c r="D13" t="n">
+        <v>88.73846752161626</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F13" t="n">
+        <v>263</v>
+      </c>
+      <c r="G13" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H13" t="n">
+        <v>31</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8677301692667447</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L13" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>15:19:53.284049</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1816.36778415172</v>
+      </c>
+      <c r="C14" t="n">
+        <v>240.7942292760708</v>
+      </c>
+      <c r="D14" t="n">
+        <v>88.52250230047503</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F14" t="n">
+        <v>263</v>
+      </c>
+      <c r="G14" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H14" t="n">
+        <v>31</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.8707329411442464</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L14" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>15:19:53.392379</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1822.48479140157</v>
+      </c>
+      <c r="C15" t="n">
+        <v>272.4908969845274</v>
+      </c>
+      <c r="D15" t="n">
+        <v>89.83850780306966</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F15" t="n">
+        <v>263</v>
+      </c>
+      <c r="G15" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H15" t="n">
+        <v>31</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8729945236514737</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L15" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15:19:53.528449</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1820.7016223057</v>
+      </c>
+      <c r="C16" t="n">
+        <v>284.1350554539531</v>
+      </c>
+      <c r="D16" t="n">
+        <v>92.53506163597194</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F16" t="n">
+        <v>263</v>
+      </c>
+      <c r="G16" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H16" t="n">
+        <v>31</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.8592133462546901</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L16" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>15:19:53.683361</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1814.130256971606</v>
+      </c>
+      <c r="C17" t="n">
+        <v>295.8220749911561</v>
+      </c>
+      <c r="D17" t="n">
+        <v>95.1741390488678</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F17" t="n">
+        <v>263</v>
+      </c>
+      <c r="G17" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H17" t="n">
+        <v>31</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.8309751005498395</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L17" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>15:19:53.849741</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1813.578029923287</v>
+      </c>
+      <c r="C18" t="n">
+        <v>301.3821943946823</v>
+      </c>
+      <c r="D18" t="n">
+        <v>97.98869177971937</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F18" t="n">
+        <v>263</v>
+      </c>
+      <c r="G18" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H18" t="n">
+        <v>31</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.8033387465078116</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L18" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>15:19:53.982910</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1810.580843888369</v>
+      </c>
+      <c r="C19" t="n">
+        <v>308.4714091666683</v>
+      </c>
+      <c r="D19" t="n">
+        <v>101.1020071831808</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F19" t="n">
+        <v>263</v>
+      </c>
+      <c r="G19" t="n">
+        <v>171.887338539247</v>
+      </c>
+      <c r="H19" t="n">
+        <v>31</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.741262256567122</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L19" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>15:19:54.149245</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1806.000844958675</v>
+      </c>
+      <c r="C20" t="n">
+        <v>316.9690140763123</v>
+      </c>
+      <c r="D20" t="n">
+        <v>103.03331964471</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F20" t="n">
+        <v>263</v>
+      </c>
+      <c r="G20" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H20" t="n">
+        <v>31</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.321037599764034</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L20" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>15:19:54.315636</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1806.000844958675</v>
+      </c>
+      <c r="C21" t="n">
+        <v>316.9690140763123</v>
+      </c>
+      <c r="D21" t="n">
+        <v>103.03331964471</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F21" t="n">
+        <v>263</v>
+      </c>
+      <c r="G21" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H21" t="n">
+        <v>31</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.321037599764034</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L21" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>15:19:54.448705</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1797.788676001568</v>
+      </c>
+      <c r="C22" t="n">
+        <v>329.7948320607247</v>
+      </c>
+      <c r="D22" t="n">
+        <v>105.8525302979615</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F22" t="n">
+        <v>263</v>
+      </c>
+      <c r="G22" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H22" t="n">
+        <v>31</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.291514894840111</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L22" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>15:19:54.615122</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1789.768767903064</v>
+      </c>
+      <c r="C23" t="n">
+        <v>340.3310402507486</v>
+      </c>
+      <c r="D23" t="n">
+        <v>110.1579670016872</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F23" t="n">
+        <v>263</v>
+      </c>
+      <c r="G23" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H23" t="n">
+        <v>31</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.26862706282318</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L23" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>15:19:54.781545</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1787.590103211318</v>
+      </c>
+      <c r="C24" t="n">
+        <v>347.3798252736742</v>
+      </c>
+      <c r="D24" t="n">
+        <v>112.4444665570263</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F24" t="n">
+        <v>263</v>
+      </c>
+      <c r="G24" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H24" t="n">
+        <v>31</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.246428467110375</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L24" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>15:19:54.914637</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1785.898579964618</v>
+      </c>
+      <c r="C25" t="n">
+        <v>343.9765388706292</v>
+      </c>
+      <c r="D25" t="n">
+        <v>114.9324056817932</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F25" t="n">
+        <v>263</v>
+      </c>
+      <c r="G25" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H25" t="n">
+        <v>31</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.222484299758743</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L25" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>15:19:55.081013</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1784.121562661807</v>
+      </c>
+      <c r="C26" t="n">
+        <v>345.9369188807614</v>
+      </c>
+      <c r="D26" t="n">
+        <v>117.7097041523644</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F26" t="n">
+        <v>263</v>
+      </c>
+      <c r="G26" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H26" t="n">
+        <v>31</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.16734686059568</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L26" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>15:19:55.247655</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1785.051824643364</v>
+      </c>
+      <c r="C27" t="n">
+        <v>349.8950958302885</v>
+      </c>
+      <c r="D27" t="n">
+        <v>119.9784480567882</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F27" t="n">
+        <v>263</v>
+      </c>
+      <c r="G27" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H27" t="n">
+        <v>31</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.143588629985632</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L27" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>15:19:55.420857</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1787.320539796696</v>
+      </c>
+      <c r="C28" t="n">
+        <v>359.5202256685297</v>
+      </c>
+      <c r="D28" t="n">
+        <v>125.9997732271927</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F28" t="n">
+        <v>263</v>
+      </c>
+      <c r="G28" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H28" t="n">
+        <v>31</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.111407358010862</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L28" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>15:19:55.546923</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1788.950128572964</v>
+      </c>
+      <c r="C29" t="n">
+        <v>365.155180488</v>
+      </c>
+      <c r="D29" t="n">
+        <v>129.1922683784992</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F29" t="n">
+        <v>263</v>
+      </c>
+      <c r="G29" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H29" t="n">
+        <v>31</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.080533460251572</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L29" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>15:19:55.713287</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1783.771626010042</v>
+      </c>
+      <c r="C30" t="n">
+        <v>374.6700902844168</v>
+      </c>
+      <c r="D30" t="n">
+        <v>132.4756767254053</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F30" t="n">
+        <v>263</v>
+      </c>
+      <c r="G30" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H30" t="n">
+        <v>31</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.04710172920502</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L30" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>15:19:55.879662</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1780.938950191688</v>
+      </c>
+      <c r="C31" t="n">
+        <v>381.5142816016305</v>
+      </c>
+      <c r="D31" t="n">
+        <v>135.6378143003872</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F31" t="n">
+        <v>263</v>
+      </c>
+      <c r="G31" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H31" t="n">
+        <v>31</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.012717957400435</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L31" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>15:19:56.012781</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1779.814465820295</v>
+      </c>
+      <c r="C32" t="n">
+        <v>390.7017466463003</v>
+      </c>
+      <c r="D32" t="n">
+        <v>138.8565546672521</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F32" t="n">
+        <v>263</v>
+      </c>
+      <c r="G32" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H32" t="n">
+        <v>31</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.9458975598485709</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L32" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>15:19:56.179172</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1772.590388321754</v>
+      </c>
+      <c r="C33" t="n">
+        <v>397.9723934866342</v>
+      </c>
+      <c r="D33" t="n">
+        <v>142.298751084852</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F33" t="n">
+        <v>263</v>
+      </c>
+      <c r="G33" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H33" t="n">
+        <v>31</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.9098509632560874</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L33" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>15:19:56.345580</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1762.234162922454</v>
+      </c>
+      <c r="C34" t="n">
+        <v>409.7785579313495</v>
+      </c>
+      <c r="D34" t="n">
+        <v>148.1141111215015</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F34" t="n">
+        <v>263</v>
+      </c>
+      <c r="G34" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H34" t="n">
+        <v>31</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.8828718445692167</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L34" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>15:19:56.478663</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1752.192828750907</v>
+      </c>
+      <c r="C35" t="n">
+        <v>414.9999462867527</v>
+      </c>
+      <c r="D35" t="n">
+        <v>151.3368608570795</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F35" t="n">
+        <v>263</v>
+      </c>
+      <c r="G35" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H35" t="n">
+        <v>31</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.8489526553590283</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L35" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>15:19:56.645084</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1745.204307551234</v>
+      </c>
+      <c r="C36" t="n">
+        <v>423.9545025265215</v>
+      </c>
+      <c r="D36" t="n">
+        <v>154.0422186233241</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F36" t="n">
+        <v>263</v>
+      </c>
+      <c r="G36" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H36" t="n">
+        <v>31</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.8152040990468611</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L36" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>15:19:56.811442</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1736.167224732839</v>
+      </c>
+      <c r="C37" t="n">
+        <v>427.7899904568585</v>
+      </c>
+      <c r="D37" t="n">
+        <v>157.0258375901517</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F37" t="n">
+        <v>263</v>
+      </c>
+      <c r="G37" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H37" t="n">
+        <v>31</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.7868736587676409</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L37" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>15:19:56.944563</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1728.28239393761</v>
+      </c>
+      <c r="C38" t="n">
+        <v>432.8869670323002</v>
+      </c>
+      <c r="D38" t="n">
+        <v>159.6714109995423</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F38" t="n">
+        <v>263</v>
+      </c>
+      <c r="G38" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H38" t="n">
+        <v>31</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.7279248940517378</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L38" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>15:19:57.110964</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1723.40449755115</v>
+      </c>
+      <c r="C39" t="n">
+        <v>440.194762009105</v>
+      </c>
+      <c r="D39" t="n">
+        <v>161.3264138942372</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F39" t="n">
+        <v>263</v>
+      </c>
+      <c r="G39" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H39" t="n">
+        <v>31</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.7105937442662597</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L39" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>15:19:57.277656</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1710.351359288092</v>
+      </c>
+      <c r="C40" t="n">
+        <v>447.8149331872373</v>
+      </c>
+      <c r="D40" t="n">
+        <v>165.4523191060775</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F40" t="n">
+        <v>263</v>
+      </c>
+      <c r="G40" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H40" t="n">
+        <v>31</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.6884763032451114</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L40" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>15:19:57.410441</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1710.351359288092</v>
+      </c>
+      <c r="C41" t="n">
+        <v>447.8149331872373</v>
+      </c>
+      <c r="D41" t="n">
+        <v>165.4523191060775</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F41" t="n">
+        <v>263</v>
+      </c>
+      <c r="G41" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H41" t="n">
+        <v>31</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.6673873659231753</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L41" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>15:19:57.576798</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1705.059500786359</v>
+      </c>
+      <c r="C42" t="n">
+        <v>450.439530715721</v>
+      </c>
+      <c r="D42" t="n">
+        <v>167.1264289931764</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F42" t="n">
+        <v>263</v>
+      </c>
+      <c r="G42" t="n">
+        <v>229.1831180523293</v>
+      </c>
+      <c r="H42" t="n">
+        <v>31</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.6673873659231753</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L42" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>15:19:57.743224</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1682.326865943964</v>
+      </c>
+      <c r="C43" t="n">
+        <v>460.218460217493</v>
+      </c>
+      <c r="D43" t="n">
+        <v>168.8587815181722</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F43" t="n">
+        <v>263</v>
+      </c>
+      <c r="G43" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H43" t="n">
+        <v>31</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.231714974961287</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L43" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>15:19:57.909608</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1683.34030807286</v>
+      </c>
+      <c r="C44" t="n">
+        <v>449.052209511774</v>
+      </c>
+      <c r="D44" t="n">
+        <v>169.7744665907135</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F44" t="n">
+        <v>263</v>
+      </c>
+      <c r="G44" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H44" t="n">
+        <v>31</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.222125943304962</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L44" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>15:19:58.042703</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1678.072161030781</v>
+      </c>
+      <c r="C45" t="n">
+        <v>450.0693309119924</v>
+      </c>
+      <c r="D45" t="n">
+        <v>170.8606208591277</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F45" t="n">
+        <v>263</v>
+      </c>
+      <c r="G45" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H45" t="n">
+        <v>31</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.210751762403911</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L45" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>15:19:58.215201</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1663.345206989965</v>
+      </c>
+      <c r="C46" t="n">
+        <v>451.8714481265306</v>
+      </c>
+      <c r="D46" t="n">
+        <v>174.5135842477225</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F46" t="n">
+        <v>263</v>
+      </c>
+      <c r="G46" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H46" t="n">
+        <v>31</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.191614353487157</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L46" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>15:19:58.375492</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1655.96379874018</v>
+      </c>
+      <c r="C47" t="n">
+        <v>449.9366755276242</v>
+      </c>
+      <c r="D47" t="n">
+        <v>176.2827211932359</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F47" t="n">
+        <v>263</v>
+      </c>
+      <c r="G47" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H47" t="n">
+        <v>31</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.172498019252438</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L47" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>15:19:58.508619</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1651.88492882275</v>
+      </c>
+      <c r="C48" t="n">
+        <v>446.2692745698405</v>
+      </c>
+      <c r="D48" t="n">
+        <v>178.1693359140968</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F48" t="n">
+        <v>263</v>
+      </c>
+      <c r="G48" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H48" t="n">
+        <v>31</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.153971660481709</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L48" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>15:19:58.617350</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1646.655998553382</v>
+      </c>
+      <c r="C49" t="n">
+        <v>441.9816128603088</v>
+      </c>
+      <c r="D49" t="n">
+        <v>179.7972693948736</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F49" t="n">
+        <v>263</v>
+      </c>
+      <c r="G49" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H49" t="n">
+        <v>31</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.134215077324338</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L49" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>15:19:58.744827</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1641.918792261044</v>
+      </c>
+      <c r="C50" t="n">
+        <v>441.6918405490833</v>
+      </c>
+      <c r="D50" t="n">
+        <v>181.5366924207387</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F50" t="n">
+        <v>263</v>
+      </c>
+      <c r="G50" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H50" t="n">
+        <v>31</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.117167397778533</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L50" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>15:19:58.908443</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1634.877217211528</v>
+      </c>
+      <c r="C51" t="n">
+        <v>437.1178494168817</v>
+      </c>
+      <c r="D51" t="n">
+        <v>183.2145200096033</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F51" t="n">
+        <v>263</v>
+      </c>
+      <c r="G51" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H51" t="n">
+        <v>31</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.098952202446724</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L51" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>15:19:59.074325</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1643.114477046533</v>
+      </c>
+      <c r="C52" t="n">
+        <v>438.6191103009878</v>
+      </c>
+      <c r="D52" t="n">
+        <v>184.8778022251986</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F52" t="n">
+        <v>263</v>
+      </c>
+      <c r="G52" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H52" t="n">
+        <v>31</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.081382033022833</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L52" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>15:19:59.207447</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1623.021132264461</v>
+      </c>
+      <c r="C53" t="n">
+        <v>437.6285886551159</v>
+      </c>
+      <c r="D53" t="n">
+        <v>186.7580065015841</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F53" t="n">
+        <v>263</v>
+      </c>
+      <c r="G53" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H53" t="n">
+        <v>31</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.044274729251829</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L53" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>15:19:59.373856</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1622.606169151317</v>
+      </c>
+      <c r="C54" t="n">
+        <v>429.3565688813942</v>
+      </c>
+      <c r="D54" t="n">
+        <v>187.7431811276961</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F54" t="n">
+        <v>263</v>
+      </c>
+      <c r="G54" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H54" t="n">
+        <v>31</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.033958004692174</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L54" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>15:19:59.540219</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1617.5471168402</v>
+      </c>
+      <c r="C55" t="n">
+        <v>425.7032138338218</v>
+      </c>
+      <c r="D55" t="n">
+        <v>189.5266817598508</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F55" t="n">
+        <v>263</v>
+      </c>
+      <c r="G55" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H55" t="n">
+        <v>31</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.015281229746673</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L55" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>15:19:59.673298</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1617.5471168402</v>
+      </c>
+      <c r="C56" t="n">
+        <v>425.7032138338218</v>
+      </c>
+      <c r="D56" t="n">
+        <v>189.5266817598508</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F56" t="n">
+        <v>263</v>
+      </c>
+      <c r="G56" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H56" t="n">
+        <v>31</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.015281229746673</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L56" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>15:19:59.839728</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1606.311008667166</v>
+      </c>
+      <c r="C57" t="n">
+        <v>422.0941896389377</v>
+      </c>
+      <c r="D57" t="n">
+        <v>192.5092873038716</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F57" t="n">
+        <v>263</v>
+      </c>
+      <c r="G57" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H57" t="n">
+        <v>31</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.984047457527834</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L57" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>15:20:00.006111</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1598.564583396132</v>
+      </c>
+      <c r="C58" t="n">
+        <v>409.3584882865798</v>
+      </c>
+      <c r="D58" t="n">
+        <v>194.8411177905268</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F58" t="n">
+        <v>263</v>
+      </c>
+      <c r="G58" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H58" t="n">
+        <v>31</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.984047457527834</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L58" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>15:20:00.172537</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1586.628915455134</v>
+      </c>
+      <c r="C59" t="n">
+        <v>407.855416014263</v>
+      </c>
+      <c r="D59" t="n">
+        <v>197.4325312892665</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F59" t="n">
+        <v>263</v>
+      </c>
+      <c r="G59" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H59" t="n">
+        <v>31</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.9596285857735246</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L59" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>15:20:00.305605</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1582.133932520577</v>
+      </c>
+      <c r="C60" t="n">
+        <v>401.1586733634431</v>
+      </c>
+      <c r="D60" t="n">
+        <v>199.5577219783786</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F60" t="n">
+        <v>263</v>
+      </c>
+      <c r="G60" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H60" t="n">
+        <v>31</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.9102364222187047</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L60" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>15:20:00.471948</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1576.237035890284</v>
+      </c>
+      <c r="C61" t="n">
+        <v>395.6357851398025</v>
+      </c>
+      <c r="D61" t="n">
+        <v>202.0914033596978</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F61" t="n">
+        <v>263</v>
+      </c>
+      <c r="G61" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H61" t="n">
+        <v>31</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.883703772838406</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L61" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>15:20:00.639021</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1559.083952229179</v>
+      </c>
+      <c r="C62" t="n">
+        <v>378.8617246557806</v>
+      </c>
+      <c r="D62" t="n">
+        <v>206.482038878637</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F62" t="n">
+        <v>263</v>
+      </c>
+      <c r="G62" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H62" t="n">
+        <v>31</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.8588836659573289</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L62" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>15:20:00.771554</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1559.083952229179</v>
+      </c>
+      <c r="C63" t="n">
+        <v>378.8617246557806</v>
+      </c>
+      <c r="D63" t="n">
+        <v>206.482038878637</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F63" t="n">
+        <v>263</v>
+      </c>
+      <c r="G63" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H63" t="n">
+        <v>31</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.8377251452021064</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L63" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>15:20:00.937925</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1555.31065540103</v>
+      </c>
+      <c r="C64" t="n">
+        <v>374.9603204901177</v>
+      </c>
+      <c r="D64" t="n">
+        <v>209.0955855144762</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F64" t="n">
+        <v>263</v>
+      </c>
+      <c r="G64" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H64" t="n">
+        <v>31</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.8377251452021064</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L64" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>15:20:01.104301</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1550.335134517576</v>
+      </c>
+      <c r="C65" t="n">
+        <v>369.7123003140405</v>
+      </c>
+      <c r="D65" t="n">
+        <v>210.9025323295259</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F65" t="n">
+        <v>263</v>
+      </c>
+      <c r="G65" t="n">
+        <v>286.4788975654116</v>
+      </c>
+      <c r="H65" t="n">
+        <v>31</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.8103561488322177</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L65" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>15:20:01.237401</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1547.089647639717</v>
+      </c>
+      <c r="C66" t="n">
+        <v>361.6112790135048</v>
+      </c>
+      <c r="D66" t="n">
+        <v>212.7360349611604</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F66" t="n">
+        <v>263</v>
+      </c>
+      <c r="G66" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H66" t="n">
+        <v>31</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.37223345137399</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L66" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>15:20:01.403804</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1543.646544821735</v>
+      </c>
+      <c r="C67" t="n">
+        <v>356.7486237333469</v>
+      </c>
+      <c r="D67" t="n">
+        <v>214.8648785960154</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F67" t="n">
+        <v>263</v>
+      </c>
+      <c r="G67" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H67" t="n">
+        <v>31</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.349940252960984</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L67" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>15:20:01.573117</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1541.997508883418</v>
+      </c>
+      <c r="C68" t="n">
+        <v>343.2026266126741</v>
+      </c>
+      <c r="D68" t="n">
+        <v>219.198438050114</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F68" t="n">
+        <v>263</v>
+      </c>
+      <c r="G68" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H68" t="n">
+        <v>31</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.327898200393592</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L68" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>15:20:01.709901</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1538.67954957654</v>
+      </c>
+      <c r="C69" t="n">
+        <v>338.1772318861294</v>
+      </c>
+      <c r="D69" t="n">
+        <v>221.300843696115</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F69" t="n">
+        <v>263</v>
+      </c>
+      <c r="G69" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H69" t="n">
+        <v>31</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.304559324478015</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L69" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>15:20:01.869695</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1539.232766603294</v>
+      </c>
+      <c r="C70" t="n">
+        <v>330.0564379496791</v>
+      </c>
+      <c r="D70" t="n">
+        <v>223.7421851703016</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F70" t="n">
+        <v>263</v>
+      </c>
+      <c r="G70" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H70" t="n">
+        <v>31</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.282542984036874</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L70" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>15:20:02.036040</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1535.316965081205</v>
+      </c>
+      <c r="C71" t="n">
+        <v>321.835742166877</v>
+      </c>
+      <c r="D71" t="n">
+        <v>226.2315739872588</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F71" t="n">
+        <v>263</v>
+      </c>
+      <c r="G71" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H71" t="n">
+        <v>31</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.256977315902845</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L71" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>15:20:02.169195</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1525.281446524372</v>
+      </c>
+      <c r="C72" t="n">
+        <v>312.8800042184594</v>
+      </c>
+      <c r="D72" t="n">
+        <v>228.4511408391132</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F72" t="n">
+        <v>263</v>
+      </c>
+      <c r="G72" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H72" t="n">
+        <v>31</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.207665247452117</v>
+      </c>
+      <c r="K72" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L72" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>15:20:02.335572</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1528.750793896092</v>
+      </c>
+      <c r="C73" t="n">
+        <v>304.9312447641569</v>
+      </c>
+      <c r="D73" t="n">
+        <v>230.7697237382831</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F73" t="n">
+        <v>263</v>
+      </c>
+      <c r="G73" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H73" t="n">
+        <v>31</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.183385104109546</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L73" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>15:20:02.512993</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1527.273332221142</v>
+      </c>
+      <c r="C74" t="n">
+        <v>286.8521420845354</v>
+      </c>
+      <c r="D74" t="n">
+        <v>235.671089893674</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F74" t="n">
+        <v>263</v>
+      </c>
+      <c r="G74" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H74" t="n">
+        <v>31</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.159097537725584</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L74" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>15:20:02.668362</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1522.887836488138</v>
+      </c>
+      <c r="C75" t="n">
+        <v>283.0798716960999</v>
+      </c>
+      <c r="D75" t="n">
+        <v>238.9614871577373</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F75" t="n">
+        <v>263</v>
+      </c>
+      <c r="G75" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H75" t="n">
+        <v>31</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.132058117755113</v>
+      </c>
+      <c r="K75" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L75" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>15:20:02.801868</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1524.1225068848</v>
+      </c>
+      <c r="C76" t="n">
+        <v>278.9475662262703</v>
+      </c>
+      <c r="D76" t="n">
+        <v>242.1043937411173</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F76" t="n">
+        <v>263</v>
+      </c>
+      <c r="G76" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H76" t="n">
+        <v>31</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.097601158181202</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L76" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>15:20:02.930219</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1519.940340078523</v>
+      </c>
+      <c r="C77" t="n">
+        <v>275.5590228833171</v>
+      </c>
+      <c r="D77" t="n">
+        <v>244.747152439902</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F77" t="n">
+        <v>263</v>
+      </c>
+      <c r="G77" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H77" t="n">
+        <v>31</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.064688717403651</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L77" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>15:20:03.048639</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1520.041317555791</v>
+      </c>
+      <c r="C78" t="n">
+        <v>271.1983183140546</v>
+      </c>
+      <c r="D78" t="n">
+        <v>246.8735622113468</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F78" t="n">
+        <v>263</v>
+      </c>
+      <c r="G78" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H78" t="n">
+        <v>31</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.037013813025942</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L78" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>15:20:03.200772</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1522.074780932366</v>
+      </c>
+      <c r="C79" t="n">
+        <v>267.116757596159</v>
+      </c>
+      <c r="D79" t="n">
+        <v>249.4068332865731</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F79" t="n">
+        <v>263</v>
+      </c>
+      <c r="G79" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H79" t="n">
+        <v>31</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.014746101970967</v>
+      </c>
+      <c r="K79" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L79" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>15:20:03.367213</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1521.367901690741</v>
+      </c>
+      <c r="C80" t="n">
+        <v>259.5758746825595</v>
+      </c>
+      <c r="D80" t="n">
+        <v>251.454877584199</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F80" t="n">
+        <v>263</v>
+      </c>
+      <c r="G80" t="n">
+        <v>343.7746770784939</v>
+      </c>
+      <c r="H80" t="n">
+        <v>31</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.988217749306025</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L80" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>15:20:03.500291</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1519.219102622214</v>
+      </c>
+      <c r="C81" t="n">
+        <v>253.7117720330571</v>
+      </c>
+      <c r="D81" t="n">
+        <v>253.9631403665567</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F81" t="n">
+        <v>263</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>31</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.110415397447192</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L81" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>15:20:03.666699</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1521.533393026533</v>
+      </c>
+      <c r="C82" t="n">
+        <v>246.2409808049415</v>
+      </c>
+      <c r="D82" t="n">
+        <v>256.3072742949748</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F82" t="n">
+        <v>263</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>31</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.085867684352029</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L82" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>15:20:03.845740</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1519.455695183337</v>
+      </c>
+      <c r="C83" t="n">
+        <v>237.9797620797035</v>
+      </c>
+      <c r="D83" t="n">
+        <v>260.6702699003085</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F83" t="n">
+        <v>263</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>31</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.063790382298067</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L83" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>15:20:03.986785</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1518.767287607392</v>
+      </c>
+      <c r="C84" t="n">
+        <v>235.3989420324069</v>
+      </c>
+      <c r="D84" t="n">
+        <v>262.8175288088983</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F84" t="n">
+        <v>263</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>31</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.040178501214158</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L84" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>15:20:04.132575</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1517.033257016505</v>
+      </c>
+      <c r="C85" t="n">
+        <v>231.9710559542727</v>
+      </c>
+      <c r="D85" t="n">
+        <v>264.6984726679625</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F85" t="n">
+        <v>263</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>31</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.017692458505557</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L85" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>15:20:04.298997</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1516.712753269298</v>
+      </c>
+      <c r="C86" t="n">
+        <v>227.7600787620031</v>
+      </c>
+      <c r="D86" t="n">
+        <v>266.4808410950468</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F86" t="n">
+        <v>263</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>31</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.9979952604740526</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L86" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>15:20:04.432214</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1515.535203266831</v>
+      </c>
+      <c r="C87" t="n">
+        <v>224.5183831702889</v>
+      </c>
+      <c r="D87" t="n">
+        <v>268.6816881733944</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F87" t="n">
+        <v>263</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>31</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.9562831252422872</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L87" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>15:20:04.598402</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1517.840377140732</v>
+      </c>
+      <c r="C88" t="n">
+        <v>220.2267183613003</v>
+      </c>
+      <c r="D88" t="n">
+        <v>270.6449486405586</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F88" t="n">
+        <v>263</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>31</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.9357239097065324</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L88" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>15:20:04.778850</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1516.525445149222</v>
+      </c>
+      <c r="C89" t="n">
+        <v>213.6753688184399</v>
+      </c>
+      <c r="D89" t="n">
+        <v>272.6879342289726</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F89" t="n">
+        <v>263</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>31</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.9357239097065324</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L89" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>15:20:04.897884</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1516.525445149222</v>
+      </c>
+      <c r="C90" t="n">
+        <v>213.6753688184399</v>
+      </c>
+      <c r="D90" t="n">
+        <v>272.6879342289726</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F90" t="n">
+        <v>263</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>31</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.9143298146533615</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L90" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>15:20:05.064299</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1515.6142667236</v>
+      </c>
+      <c r="C91" t="n">
+        <v>204.5641630353202</v>
+      </c>
+      <c r="D91" t="n">
+        <v>276.3075333643178</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F91" t="n">
+        <v>263</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>31</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.8953073654699034</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L91" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>15:20:05.230850</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1515.6142667236</v>
+      </c>
+      <c r="C92" t="n">
+        <v>204.5641630353202</v>
+      </c>
+      <c r="D92" t="n">
+        <v>276.3075333643178</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F92" t="n">
+        <v>263</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>31</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.8764254611448937</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L92" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>15:20:05.397098</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1513.986301452127</v>
+      </c>
+      <c r="C93" t="n">
+        <v>193.6707342440059</v>
+      </c>
+      <c r="D93" t="n">
+        <v>278.7904100674609</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F93" t="n">
+        <v>263</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>31</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.8764254611448937</v>
+      </c>
+      <c r="K93" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L93" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>15:20:05.530193</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1513.208320312873</v>
+      </c>
+      <c r="C94" t="n">
+        <v>195.6803298427985</v>
+      </c>
+      <c r="D94" t="n">
+        <v>281.0071618767074</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F94" t="n">
+        <v>263</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>31</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.8272110664478125</v>
+      </c>
+      <c r="K94" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L94" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>15:20:05.696558</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1513.045824617251</v>
+      </c>
+      <c r="C95" t="n">
+        <v>193.6211514348543</v>
+      </c>
+      <c r="D95" t="n">
+        <v>283.0789168331216</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F95" t="n">
+        <v>263</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>31</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.8055156992774483</v>
+      </c>
+      <c r="K95" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L95" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>15:20:05.862964</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1512.992156269132</v>
+      </c>
+      <c r="C96" t="n">
+        <v>191.4114739473007</v>
+      </c>
+      <c r="D96" t="n">
+        <v>287.8382528320913</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F96" t="n">
+        <v>263</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>31</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.7801317362085454</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L96" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>15:20:05.996090</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1513.581357076868</v>
+      </c>
+      <c r="C97" t="n">
+        <v>192.8985531169019</v>
+      </c>
+      <c r="D97" t="n">
+        <v>290.015632773659</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F97" t="n">
+        <v>263</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>31</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.7556760492430207</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L97" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>15:20:06.162453</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1516.627833033084</v>
+      </c>
+      <c r="C98" t="n">
+        <v>193.3874345402728</v>
+      </c>
+      <c r="D98" t="n">
+        <v>292.294815000871</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F98" t="n">
+        <v>263</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>31</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.7328745798146767</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L98" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>15:20:06.328873</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1519.00523980857</v>
+      </c>
+      <c r="C99" t="n">
+        <v>190.3434450290661</v>
+      </c>
+      <c r="D99" t="n">
+        <v>294.4809798544998</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F99" t="n">
+        <v>263</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>31</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.7090070393440048</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L99" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>15:20:06.461940</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1519.573161013062</v>
+      </c>
+      <c r="C100" t="n">
+        <v>188.9411669708352</v>
+      </c>
+      <c r="D100" t="n">
+        <v>296.7152392326648</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F100" t="n">
+        <v>263</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>31</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.6627164650361594</v>
+      </c>
+      <c r="K100" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L100" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>15:20:06.628328</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1519.958098472665</v>
+      </c>
+      <c r="C101" t="n">
+        <v>186.4148016338731</v>
+      </c>
+      <c r="D101" t="n">
+        <v>298.7219815908725</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F101" t="n">
+        <v>263</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>31</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.6417019082021838</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L101" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>15:20:06.794763</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1524.893565098859</v>
+      </c>
+      <c r="C102" t="n">
+        <v>181.0309546241115</v>
+      </c>
+      <c r="D102" t="n">
+        <v>302.7045860718613</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F102" t="n">
+        <v>263</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>31</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.6221838527282584</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L102" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>15:20:06.927855</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1528.621820994698</v>
+      </c>
+      <c r="C103" t="n">
+        <v>178.999856876726</v>
+      </c>
+      <c r="D103" t="n">
+        <v>304.5794798652901</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F103" t="n">
+        <v>263</v>
+      </c>
+      <c r="G103" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H103" t="n">
+        <v>31</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.199996171603423</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L103" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>15:20:07.094226</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1532.926221930933</v>
+      </c>
+      <c r="C104" t="n">
+        <v>174.1476565772246</v>
+      </c>
+      <c r="D104" t="n">
+        <v>306.864804023437</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F104" t="n">
+        <v>263</v>
+      </c>
+      <c r="G104" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H104" t="n">
+        <v>31</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.180362329711099</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L104" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>15:20:07.260680</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1531.378117558592</v>
+      </c>
+      <c r="C105" t="n">
+        <v>172.5335108601939</v>
+      </c>
+      <c r="D105" t="n">
+        <v>309.1373903839053</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F105" t="n">
+        <v>263</v>
+      </c>
+      <c r="G105" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H105" t="n">
+        <v>31</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.15643047109008</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L105" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>15:20:07.393735</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1531.176567618781</v>
+      </c>
+      <c r="C106" t="n">
+        <v>170.0936400351566</v>
+      </c>
+      <c r="D106" t="n">
+        <v>311.875979925892</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F106" t="n">
+        <v>263</v>
+      </c>
+      <c r="G106" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H106" t="n">
+        <v>31</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.103953559753419</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L106" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>15:20:07.560131</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1534.765516762667</v>
+      </c>
+      <c r="C107" t="n">
+        <v>163.4560019496348</v>
+      </c>
+      <c r="D107" t="n">
+        <v>314.3003316071486</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F107" t="n">
+        <v>263</v>
+      </c>
+      <c r="G107" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H107" t="n">
+        <v>31</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.078565808314906</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L107" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>15:20:07.726498</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1538.032298156571</v>
+      </c>
+      <c r="C108" t="n">
+        <v>159.3431488812712</v>
+      </c>
+      <c r="D108" t="n">
+        <v>319.4968317264943</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F108" t="n">
+        <v>263</v>
+      </c>
+      <c r="G108" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H108" t="n">
+        <v>31</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.050328306075309</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L108" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>15:20:07.892903</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1539.92354301717</v>
+      </c>
+      <c r="C109" t="n">
+        <v>156.0460594451797</v>
+      </c>
+      <c r="D109" t="n">
+        <v>321.9463417585143</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F109" t="n">
+        <v>263</v>
+      </c>
+      <c r="G109" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H109" t="n">
+        <v>31</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.024148186317189</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L109" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>15:20:08.025999</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1544.858856964669</v>
+      </c>
+      <c r="C110" t="n">
+        <v>151.0462942502272</v>
+      </c>
+      <c r="D110" t="n">
+        <v>324.3409999459186</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F110" t="n">
+        <v>263</v>
+      </c>
+      <c r="G110" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H110" t="n">
+        <v>31</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.9984969772455601</v>
+      </c>
+      <c r="K110" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L110" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>15:20:08.126746</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1547.94963304866</v>
+      </c>
+      <c r="C111" t="n">
+        <v>151.5290450273824</v>
+      </c>
+      <c r="D111" t="n">
+        <v>326.9058034769046</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F111" t="n">
+        <v>263</v>
+      </c>
+      <c r="G111" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H111" t="n">
+        <v>31</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.9734201753475336</v>
+      </c>
+      <c r="K111" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L111" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>15:20:08.258961</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1554.926577722466</v>
+      </c>
+      <c r="C112" t="n">
+        <v>151.2276433842999</v>
+      </c>
+      <c r="D112" t="n">
+        <v>329.0292138713198</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F112" t="n">
+        <v>263</v>
+      </c>
+      <c r="G112" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H112" t="n">
+        <v>31</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.9465616155780449</v>
+      </c>
+      <c r="K112" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L112" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>15:20:08.425353</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1553.958601178414</v>
+      </c>
+      <c r="C113" t="n">
+        <v>150.0575104231757</v>
+      </c>
+      <c r="D113" t="n">
+        <v>331.2234962139996</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F113" t="n">
+        <v>263</v>
+      </c>
+      <c r="G113" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H113" t="n">
+        <v>31</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.9243253139258742</v>
+      </c>
+      <c r="K113" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L113" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>15:20:08.591744</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1559.951995871774</v>
+      </c>
+      <c r="C114" t="n">
+        <v>150.0897962336239</v>
+      </c>
+      <c r="D114" t="n">
+        <v>333.2215082705738</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F114" t="n">
+        <v>263</v>
+      </c>
+      <c r="G114" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H114" t="n">
+        <v>31</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.9013468429669922</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L114" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>15:20:08.725038</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1561.250542383454</v>
+      </c>
+      <c r="C115" t="n">
+        <v>149.0348948367682</v>
+      </c>
+      <c r="D115" t="n">
+        <v>334.9788608834865</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F115" t="n">
+        <v>263</v>
+      </c>
+      <c r="G115" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H115" t="n">
+        <v>31</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.8620207561096235</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L115" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>15:20:08.891234</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1566.084147876058</v>
+      </c>
+      <c r="C116" t="n">
+        <v>144.7957952053912</v>
+      </c>
+      <c r="D116" t="n">
+        <v>336.4874932658063</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F116" t="n">
+        <v>263</v>
+      </c>
+      <c r="G116" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H116" t="n">
+        <v>31</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.8462223947454115</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L116" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>15:20:09.063518</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C117" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D117" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F117" t="n">
+        <v>263</v>
+      </c>
+      <c r="G117" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H117" t="n">
+        <v>31</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.8462223947454115</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L117" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>15:20:09.191751</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C118" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D118" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F118" t="n">
+        <v>263</v>
+      </c>
+      <c r="G118" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H118" t="n">
+        <v>31</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K118" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L118" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>15:20:09.357199</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C119" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D119" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F119" t="n">
+        <v>263</v>
+      </c>
+      <c r="G119" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H119" t="n">
+        <v>31</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K119" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L119" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>15:20:09.523553</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C120" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D120" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F120" t="n">
+        <v>263</v>
+      </c>
+      <c r="G120" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H120" t="n">
+        <v>31</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K120" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L120" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>15:20:09.656681</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C121" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D121" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F121" t="n">
+        <v>263</v>
+      </c>
+      <c r="G121" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H121" t="n">
+        <v>31</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K121" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L121" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>15:20:09.823130</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C122" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D122" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F122" t="n">
+        <v>263</v>
+      </c>
+      <c r="G122" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H122" t="n">
+        <v>31</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K122" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L122" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>15:20:09.989441</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C123" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D123" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F123" t="n">
+        <v>263</v>
+      </c>
+      <c r="G123" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H123" t="n">
+        <v>31</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K123" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L123" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>15:20:10.155791</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C124" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D124" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F124" t="n">
+        <v>263</v>
+      </c>
+      <c r="G124" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H124" t="n">
+        <v>31</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K124" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L124" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>15:20:10.289263</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C125" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D125" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F125" t="n">
+        <v>263</v>
+      </c>
+      <c r="G125" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H125" t="n">
+        <v>31</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K125" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L125" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>15:20:10.455404</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C126" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D126" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F126" t="n">
+        <v>263</v>
+      </c>
+      <c r="G126" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H126" t="n">
+        <v>31</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K126" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L126" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>15:20:10.621732</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C127" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D127" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F127" t="n">
+        <v>263</v>
+      </c>
+      <c r="G127" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H127" t="n">
+        <v>31</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K127" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L127" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>15:20:10.754847</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C128" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D128" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F128" t="n">
+        <v>263</v>
+      </c>
+      <c r="G128" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H128" t="n">
+        <v>31</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K128" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L128" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>15:20:10.921295</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C129" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D129" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F129" t="n">
+        <v>263</v>
+      </c>
+      <c r="G129" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H129" t="n">
+        <v>31</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K129" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L129" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>15:20:11.087623</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C130" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D130" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F130" t="n">
+        <v>263</v>
+      </c>
+      <c r="G130" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H130" t="n">
+        <v>31</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K130" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L130" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>15:20:11.220738</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C131" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D131" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F131" t="n">
+        <v>263</v>
+      </c>
+      <c r="G131" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H131" t="n">
+        <v>31</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K131" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L131" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>15:20:11.387130</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C132" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D132" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F132" t="n">
+        <v>263</v>
+      </c>
+      <c r="G132" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H132" t="n">
+        <v>31</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K132" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L132" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>15:20:11.553519</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C133" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D133" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F133" t="n">
+        <v>263</v>
+      </c>
+      <c r="G133" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H133" t="n">
+        <v>31</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K133" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L133" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>15:20:11.686601</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C134" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D134" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F134" t="n">
+        <v>263</v>
+      </c>
+      <c r="G134" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H134" t="n">
+        <v>31</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K134" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L134" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>15:20:11.852973</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C135" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D135" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F135" t="n">
+        <v>263</v>
+      </c>
+      <c r="G135" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H135" t="n">
+        <v>31</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K135" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L135" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>15:20:12.019399</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C136" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D136" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F136" t="n">
+        <v>263</v>
+      </c>
+      <c r="G136" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H136" t="n">
+        <v>31</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K136" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L136" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>15:20:12.152514</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C137" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D137" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F137" t="n">
+        <v>263</v>
+      </c>
+      <c r="G137" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H137" t="n">
+        <v>31</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K137" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L137" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>15:20:12.319286</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C138" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D138" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F138" t="n">
+        <v>263</v>
+      </c>
+      <c r="G138" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H138" t="n">
+        <v>31</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K138" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L138" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>15:20:12.485311</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C139" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D139" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F139" t="n">
+        <v>263</v>
+      </c>
+      <c r="G139" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H139" t="n">
+        <v>31</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K139" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L139" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>15:20:12.651624</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C140" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D140" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F140" t="n">
+        <v>263</v>
+      </c>
+      <c r="G140" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H140" t="n">
+        <v>31</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K140" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L140" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>15:20:12.784801</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C141" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D141" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F141" t="n">
+        <v>263</v>
+      </c>
+      <c r="G141" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H141" t="n">
+        <v>31</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K141" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L141" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>15:20:12.951196</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C142" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D142" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F142" t="n">
+        <v>263</v>
+      </c>
+      <c r="G142" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H142" t="n">
+        <v>31</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K142" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L142" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>15:20:13.117551</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C143" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D143" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F143" t="n">
+        <v>263</v>
+      </c>
+      <c r="G143" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H143" t="n">
+        <v>31</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K143" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L143" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>15:20:13.250655</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C144" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D144" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F144" t="n">
+        <v>263</v>
+      </c>
+      <c r="G144" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H144" t="n">
+        <v>31</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K144" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L144" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>15:20:13.417036</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C145" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D145" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F145" t="n">
+        <v>263</v>
+      </c>
+      <c r="G145" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H145" t="n">
+        <v>31</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K145" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L145" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>15:20:13.583442</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C146" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D146" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F146" t="n">
+        <v>263</v>
+      </c>
+      <c r="G146" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H146" t="n">
+        <v>31</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K146" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L146" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>15:20:13.716540</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C147" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D147" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F147" t="n">
+        <v>263</v>
+      </c>
+      <c r="G147" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H147" t="n">
+        <v>31</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K147" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L147" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>15:20:13.883147</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C148" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D148" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F148" t="n">
+        <v>263</v>
+      </c>
+      <c r="G148" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H148" t="n">
+        <v>31</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K148" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L148" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>15:20:14.049316</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C149" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D149" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F149" t="n">
+        <v>263</v>
+      </c>
+      <c r="G149" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H149" t="n">
+        <v>31</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K149" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L149" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>15:20:14.182501</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C150" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D150" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F150" t="n">
+        <v>263</v>
+      </c>
+      <c r="G150" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H150" t="n">
+        <v>31</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K150" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L150" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>15:20:14.348875</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C151" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D151" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F151" t="n">
+        <v>263</v>
+      </c>
+      <c r="G151" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H151" t="n">
+        <v>31</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K151" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L151" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>15:20:14.515620</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C152" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D152" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F152" t="n">
+        <v>263</v>
+      </c>
+      <c r="G152" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H152" t="n">
+        <v>31</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K152" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L152" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>15:20:14.648334</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C153" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D153" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F153" t="n">
+        <v>263</v>
+      </c>
+      <c r="G153" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H153" t="n">
+        <v>31</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K153" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L153" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>15:20:14.818012</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C154" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D154" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F154" t="n">
+        <v>263</v>
+      </c>
+      <c r="G154" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H154" t="n">
+        <v>31</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K154" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L154" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>15:20:14.981408</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C155" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D155" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F155" t="n">
+        <v>263</v>
+      </c>
+      <c r="G155" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H155" t="n">
+        <v>31</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K155" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L155" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>15:20:15.147555</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C156" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D156" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F156" t="n">
+        <v>263</v>
+      </c>
+      <c r="G156" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H156" t="n">
+        <v>31</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K156" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L156" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>15:20:15.280579</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C157" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D157" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F157" t="n">
+        <v>263</v>
+      </c>
+      <c r="G157" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H157" t="n">
+        <v>31</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K157" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L157" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>15:20:15.446993</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C158" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D158" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F158" t="n">
+        <v>263</v>
+      </c>
+      <c r="G158" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H158" t="n">
+        <v>31</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K158" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L158" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>15:20:15.616796</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C159" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D159" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F159" t="n">
+        <v>263</v>
+      </c>
+      <c r="G159" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H159" t="n">
+        <v>31</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K159" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L159" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>15:20:15.749618</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C160" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D160" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F160" t="n">
+        <v>263</v>
+      </c>
+      <c r="G160" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H160" t="n">
+        <v>31</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K160" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L160" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>15:20:15.912938</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C161" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D161" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F161" t="n">
+        <v>263</v>
+      </c>
+      <c r="G161" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H161" t="n">
+        <v>31</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K161" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L161" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>15:20:16.079715</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C162" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D162" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F162" t="n">
+        <v>263</v>
+      </c>
+      <c r="G162" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H162" t="n">
+        <v>31</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K162" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L162" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>15:20:16.212363</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C163" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D163" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F163" t="n">
+        <v>263</v>
+      </c>
+      <c r="G163" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H163" t="n">
+        <v>31</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K163" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L163" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>15:20:16.378962</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C164" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D164" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F164" t="n">
+        <v>263</v>
+      </c>
+      <c r="G164" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H164" t="n">
+        <v>31</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K164" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L164" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>15:20:16.545398</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C165" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D165" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F165" t="n">
+        <v>263</v>
+      </c>
+      <c r="G165" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H165" t="n">
+        <v>31</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K165" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L165" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>15:20:16.678247</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C166" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D166" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F166" t="n">
+        <v>263</v>
+      </c>
+      <c r="G166" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H166" t="n">
+        <v>31</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K166" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L166" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>15:20:16.844636</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C167" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D167" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F167" t="n">
+        <v>263</v>
+      </c>
+      <c r="G167" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H167" t="n">
+        <v>31</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K167" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L167" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>15:20:17.011088</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C168" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D168" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F168" t="n">
+        <v>263</v>
+      </c>
+      <c r="G168" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H168" t="n">
+        <v>31</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K168" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L168" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>15:20:17.144148</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C169" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D169" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F169" t="n">
+        <v>263</v>
+      </c>
+      <c r="G169" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H169" t="n">
+        <v>31</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K169" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L169" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>15:20:17.310698</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C170" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D170" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F170" t="n">
+        <v>263</v>
+      </c>
+      <c r="G170" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H170" t="n">
+        <v>31</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K170" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L170" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>15:20:17.476939</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C171" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D171" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F171" t="n">
+        <v>263</v>
+      </c>
+      <c r="G171" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H171" t="n">
+        <v>31</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K171" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L171" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>15:20:17.643257</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C172" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D172" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F172" t="n">
+        <v>263</v>
+      </c>
+      <c r="G172" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H172" t="n">
+        <v>31</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K172" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L172" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>15:20:17.776453</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C173" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D173" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F173" t="n">
+        <v>263</v>
+      </c>
+      <c r="G173" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H173" t="n">
+        <v>31</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K173" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L173" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>15:20:17.942834</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C174" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D174" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F174" t="n">
+        <v>263</v>
+      </c>
+      <c r="G174" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H174" t="n">
+        <v>31</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K174" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L174" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>15:20:18.109261</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C175" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D175" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F175" t="n">
+        <v>263</v>
+      </c>
+      <c r="G175" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H175" t="n">
+        <v>31</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K175" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L175" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>15:20:18.242286</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C176" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D176" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F176" t="n">
+        <v>263</v>
+      </c>
+      <c r="G176" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H176" t="n">
+        <v>31</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K176" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L176" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>15:20:18.408674</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C177" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D177" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F177" t="n">
+        <v>263</v>
+      </c>
+      <c r="G177" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H177" t="n">
+        <v>31</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K177" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L177" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>15:20:18.575097</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C178" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D178" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F178" t="n">
+        <v>263</v>
+      </c>
+      <c r="G178" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H178" t="n">
+        <v>31</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K178" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L178" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>15:20:18.708201</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C179" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D179" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F179" t="n">
+        <v>263</v>
+      </c>
+      <c r="G179" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H179" t="n">
+        <v>31</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K179" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L179" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>15:20:18.874595</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C180" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D180" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F180" t="n">
+        <v>263</v>
+      </c>
+      <c r="G180" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H180" t="n">
+        <v>31</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K180" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L180" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>15:20:19.041049</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C181" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D181" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F181" t="n">
+        <v>263</v>
+      </c>
+      <c r="G181" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H181" t="n">
+        <v>31</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K181" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L181" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>15:20:19.174116</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C182" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D182" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F182" t="n">
+        <v>263</v>
+      </c>
+      <c r="G182" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H182" t="n">
+        <v>31</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K182" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L182" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>15:20:19.340516</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C183" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D183" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F183" t="n">
+        <v>263</v>
+      </c>
+      <c r="G183" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H183" t="n">
+        <v>31</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K183" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L183" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>15:20:19.506896</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C184" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D184" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F184" t="n">
+        <v>263</v>
+      </c>
+      <c r="G184" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H184" t="n">
+        <v>31</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K184" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L184" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>15:20:19.640003</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1574.505152998421</v>
+      </c>
+      <c r="C185" t="n">
+        <v>147.776133719708</v>
+      </c>
+      <c r="D185" t="n">
+        <v>338.059427015171</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F185" t="n">
+        <v>263</v>
+      </c>
+      <c r="G185" t="n">
+        <v>57.29577951308232</v>
+      </c>
+      <c r="H185" t="n">
+        <v>31</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.8297611430156318</v>
+      </c>
+      <c r="K185" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L185" t="n">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>